--- a/data/trans_orig/P63C-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P63C-Habitat-trans_orig.xlsx
@@ -744,19 +744,19 @@
         <v>468897</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>447327</v>
+        <v>448828</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>489085</v>
+        <v>492110</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.7520293427304369</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.7174340903629595</v>
+        <v>0.7198427996345976</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.7844077992731247</v>
+        <v>0.7892590332758956</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>369</v>
@@ -765,19 +765,19 @@
         <v>367277</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>352297</v>
+        <v>352082</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>379408</v>
+        <v>379136</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.8625456882853613</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.8273656180007084</v>
+        <v>0.8268611224042124</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.891035672396852</v>
+        <v>0.8903954992138127</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>826</v>
@@ -786,19 +786,19 @@
         <v>836175</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>808264</v>
+        <v>807724</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>858679</v>
+        <v>857487</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.7968762256616229</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.7702768391695098</v>
+        <v>0.7697622021697088</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.8183226412411446</v>
+        <v>0.8171868819082035</v>
       </c>
     </row>
     <row r="5">
@@ -815,19 +815,19 @@
         <v>14570</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>8632</v>
+        <v>7933</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>25013</v>
+        <v>22799</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.02336717321627725</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.01384344592414398</v>
+        <v>0.01272319151886963</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.04011706326772476</v>
+        <v>0.03656578747069701</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>0</v>
@@ -849,19 +849,19 @@
         <v>14570</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>8669</v>
+        <v>8475</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>23969</v>
+        <v>23778</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.01388491177882931</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.008261256130834276</v>
+        <v>0.008076726549182003</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.02284235068363763</v>
+        <v>0.02266048260325224</v>
       </c>
     </row>
     <row r="6">
@@ -881,7 +881,7 @@
         <v>0</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>5126</v>
+        <v>5130</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.001632965600026412</v>
@@ -890,7 +890,7 @@
         <v>0</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.008221602114961861</v>
+        <v>0.008227385743318301</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>1</v>
@@ -902,7 +902,7 @@
         <v>0</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>4763</v>
+        <v>4751</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.00223865020228824</v>
@@ -911,7 +911,7 @@
         <v>0</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.01118660437138817</v>
+        <v>0.01115682602156695</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>2</v>
@@ -923,7 +923,7 @@
         <v>0</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>6912</v>
+        <v>6794</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.001878748848779952</v>
@@ -932,7 +932,7 @@
         <v>0</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.00658711562365387</v>
+        <v>0.006475145374465433</v>
       </c>
     </row>
     <row r="7">
@@ -952,7 +952,7 @@
         <v>0</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>7031</v>
+        <v>6262</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.003234977988024766</v>
@@ -961,7 +961,7 @@
         <v>0</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.01127617256565277</v>
+        <v>0.01004244003926369</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>1</v>
@@ -973,7 +973,7 @@
         <v>0</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>4680</v>
+        <v>4707</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.002208853488990796</v>
@@ -982,7 +982,7 @@
         <v>0</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.01099015935422726</v>
+        <v>0.01105465718541883</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>3</v>
@@ -991,19 +991,19 @@
         <v>2958</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>896</v>
+        <v>892</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>8360</v>
+        <v>8424</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.002818582702332587</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.0008542561044429385</v>
+        <v>0.0008499281666620231</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.007966935729625643</v>
+        <v>0.008027945651412139</v>
       </c>
     </row>
     <row r="8">
@@ -1020,19 +1020,19 @@
         <v>36681</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>25776</v>
+        <v>26132</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>49799</v>
+        <v>50951</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.05882998489509295</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.04134070594406939</v>
+        <v>0.0419104232542493</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.07986921738808062</v>
+        <v>0.08171622907086407</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>10</v>
@@ -1041,19 +1041,19 @@
         <v>11550</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>5321</v>
+        <v>5746</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>19923</v>
+        <v>20627</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.02712618806424555</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.01249565609935702</v>
+        <v>0.01349422571897564</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.04678926985725534</v>
+        <v>0.04844180159430812</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>46</v>
@@ -1062,19 +1062,19 @@
         <v>48232</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>34523</v>
+        <v>35171</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>62146</v>
+        <v>62419</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.04596477063372827</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.03290087452533919</v>
+        <v>0.03351780872850905</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.05922545906124731</v>
+        <v>0.05948563613145113</v>
       </c>
     </row>
     <row r="9">
@@ -1091,19 +1091,19 @@
         <v>6058</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>2842</v>
+        <v>1969</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>13225</v>
+        <v>12859</v>
       </c>
       <c r="G9" s="6" t="n">
         <v>0.009715909846488067</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.004558153808727219</v>
+        <v>0.00315722878681388</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.02120986775217173</v>
+        <v>0.02062312153756495</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>0</v>
@@ -1125,19 +1125,19 @@
         <v>6058</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>2107</v>
+        <v>2422</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>12243</v>
+        <v>13209</v>
       </c>
       <c r="U9" s="6" t="n">
         <v>0.005773250783093146</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.002007967384250888</v>
+        <v>0.002308579737760856</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.01166729046092656</v>
+        <v>0.01258814191529057</v>
       </c>
     </row>
     <row r="10">
@@ -1154,19 +1154,19 @@
         <v>94268</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>76940</v>
+        <v>77747</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>112099</v>
+        <v>113020</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.1511896457236537</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.1233990641744842</v>
+        <v>0.1246921736514012</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.1797867640257243</v>
+        <v>0.1812639868238623</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>46</v>
@@ -1175,19 +1175,19 @@
         <v>45085</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>34979</v>
+        <v>34845</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>58220</v>
+        <v>58092</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.1058806199591142</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.08214790708682219</v>
+        <v>0.08183378293043096</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.1367291822097192</v>
+        <v>0.1364291302039308</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>140</v>
@@ -1196,19 +1196,19 @@
         <v>139353</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>120121</v>
+        <v>119143</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>162098</v>
+        <v>162334</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.1328035095916139</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.1144759314162193</v>
+        <v>0.1135435662813236</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.1544796565408377</v>
+        <v>0.1547041155353838</v>
       </c>
     </row>
     <row r="11">
@@ -1300,19 +1300,19 @@
         <v>636499</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>607560</v>
+        <v>606872</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>660905</v>
+        <v>661973</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.7271766839668078</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.6941146371980257</v>
+        <v>0.6933281580676562</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.755059566400352</v>
+        <v>0.7562796025779075</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>481</v>
@@ -1321,19 +1321,19 @@
         <v>518676</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>500652</v>
+        <v>501152</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>535175</v>
+        <v>535711</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.8550307409681948</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.8253189244102835</v>
+        <v>0.826142151110009</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.8822295985145582</v>
+        <v>0.8831116664654027</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>1071</v>
@@ -1342,19 +1342,19 @@
         <v>1155175</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>1120415</v>
+        <v>1121946</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>1187197</v>
+        <v>1183614</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.7795131642951372</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.7560567067186753</v>
+        <v>0.7570902099162942</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.801121180905034</v>
+        <v>0.7987038503355588</v>
       </c>
     </row>
     <row r="13">
@@ -1371,19 +1371,19 @@
         <v>48026</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>35468</v>
+        <v>34595</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>64593</v>
+        <v>62649</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.05486787598749904</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.04052128341673719</v>
+        <v>0.03952333995583589</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.07379523640396851</v>
+        <v>0.07157406218614178</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>13</v>
@@ -1392,19 +1392,19 @@
         <v>14053</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>7114</v>
+        <v>7946</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>22499</v>
+        <v>23812</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.02316583229797411</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.01172756644319388</v>
+        <v>0.01309965868598288</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.0370901006264947</v>
+        <v>0.03925293982178589</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>55</v>
@@ -1413,19 +1413,19 @@
         <v>62079</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>48320</v>
+        <v>46696</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>79787</v>
+        <v>80414</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.04189078769763225</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.03260655565006375</v>
+        <v>0.0315102899900717</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.05384022034289808</v>
+        <v>0.0542631823741229</v>
       </c>
     </row>
     <row r="14">
@@ -1442,19 +1442,19 @@
         <v>9324</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>5058</v>
+        <v>4951</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>17577</v>
+        <v>16891</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.01065178778856313</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.005778649984564781</v>
+        <v>0.005656791894184557</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.0200814392795833</v>
+        <v>0.01929716710609421</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>3</v>
@@ -1463,19 +1463,19 @@
         <v>2921</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>908</v>
+        <v>915</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>8514</v>
+        <v>7825</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.00481525497663786</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.001496248049409825</v>
+        <v>0.00150784674057175</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.01403541873071306</v>
+        <v>0.01289940177120849</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>12</v>
@@ -1484,19 +1484,19 @@
         <v>12245</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>6207</v>
+        <v>7025</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>19990</v>
+        <v>20342</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.008262629463351262</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.004188335022098861</v>
+        <v>0.00474030566225459</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.0134895675451666</v>
+        <v>0.01372649272218834</v>
       </c>
     </row>
     <row r="15">
@@ -1513,19 +1513,19 @@
         <v>8291</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>4005</v>
+        <v>3423</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>16276</v>
+        <v>15760</v>
       </c>
       <c r="G15" s="6" t="n">
         <v>0.009472515300468378</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>0.004575664791661561</v>
+        <v>0.003910903140781924</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.0185948279515943</v>
+        <v>0.01800568287874075</v>
       </c>
       <c r="J15" s="5" t="n">
         <v>1</v>
@@ -1537,7 +1537,7 @@
         <v>0</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>5737</v>
+        <v>5740</v>
       </c>
       <c r="N15" s="6" t="n">
         <v>0.001897238374599487</v>
@@ -1546,7 +1546,7 @@
         <v>0</v>
       </c>
       <c r="P15" s="6" t="n">
-        <v>0.009457795649704889</v>
+        <v>0.009462047133961794</v>
       </c>
       <c r="Q15" s="5" t="n">
         <v>9</v>
@@ -1555,19 +1555,19 @@
         <v>9442</v>
       </c>
       <c r="S15" s="5" t="n">
-        <v>4282</v>
+        <v>5059</v>
       </c>
       <c r="T15" s="5" t="n">
-        <v>16939</v>
+        <v>17830</v>
       </c>
       <c r="U15" s="6" t="n">
         <v>0.006371609931403053</v>
       </c>
       <c r="V15" s="6" t="n">
-        <v>0.00288935695107346</v>
+        <v>0.003413681893876917</v>
       </c>
       <c r="W15" s="6" t="n">
-        <v>0.01143043986703278</v>
+        <v>0.01203169070314156</v>
       </c>
     </row>
     <row r="16">
@@ -1584,19 +1584,19 @@
         <v>48051</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>35137</v>
+        <v>35783</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>63421</v>
+        <v>64983</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.05489686256054983</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.04014281327798934</v>
+        <v>0.04088050010968781</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.07245635210447872</v>
+        <v>0.07424088615829096</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>11</v>
@@ -1605,19 +1605,19 @@
         <v>11677</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>6255</v>
+        <v>6240</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>21411</v>
+        <v>20319</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.01924885245408304</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.01031100004873824</v>
+        <v>0.01028719554192133</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.03529558091086804</v>
+        <v>0.03349636981087947</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>56</v>
@@ -1626,19 +1626,19 @@
         <v>59728</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>44223</v>
+        <v>45505</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>75915</v>
+        <v>75182</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.04030451075382579</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.02984146873169857</v>
+        <v>0.03070672934972404</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.05122777755242058</v>
+        <v>0.05073291173137813</v>
       </c>
     </row>
     <row r="17">
@@ -1655,19 +1655,19 @@
         <v>14573</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>7486</v>
+        <v>7607</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>26083</v>
+        <v>25285</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.0166493957519493</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.008551955761713529</v>
+        <v>0.008690459073740112</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.02979900408043004</v>
+        <v>0.02888684288974288</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>1</v>
@@ -1679,7 +1679,7 @@
         <v>0</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>5334</v>
+        <v>4710</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.001549139965390091</v>
@@ -1688,7 +1688,7 @@
         <v>0</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.008793336489404871</v>
+        <v>0.007763764620637851</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>13</v>
@@ -1697,19 +1697,19 @@
         <v>15513</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>8220</v>
+        <v>8690</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>26198</v>
+        <v>26545</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.01046817429945034</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.00554707647770222</v>
+        <v>0.005863907591972147</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.01767829636752065</v>
+        <v>0.01791252358987987</v>
       </c>
     </row>
     <row r="18">
@@ -1726,19 +1726,19 @@
         <v>110537</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>91275</v>
+        <v>90784</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>130093</v>
+        <v>131958</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.1262848786441626</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.1042780888140083</v>
+        <v>0.1037176255333398</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.1486262981779091</v>
+        <v>0.1507571381947986</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>52</v>
@@ -1747,19 +1747,19 @@
         <v>57200</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>43155</v>
+        <v>43785</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>71857</v>
+        <v>73337</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.09429294096312062</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.07114038487838671</v>
+        <v>0.07217885439681729</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.1184558358189586</v>
+        <v>0.1208948583435183</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>159</v>
@@ -1768,19 +1768,19 @@
         <v>167737</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>145768</v>
+        <v>143153</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>197953</v>
+        <v>192866</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.1131891235592001</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.09836409374038158</v>
+        <v>0.09659988784857233</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.1335790883817799</v>
+        <v>0.1301460579011799</v>
       </c>
     </row>
     <row r="19">
@@ -1872,19 +1872,19 @@
         <v>462568</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>436671</v>
+        <v>439771</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>485087</v>
+        <v>483668</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.7239516249807282</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.683421258259769</v>
+        <v>0.6882730525922576</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.7591947713433032</v>
+        <v>0.75697370108573</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>367</v>
@@ -1893,19 +1893,19 @@
         <v>362399</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>348306</v>
+        <v>346590</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>374270</v>
+        <v>375420</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.8610392203492708</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.8275547812858595</v>
+        <v>0.8234775385779681</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.889244140793654</v>
+        <v>0.8919744589858704</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>800</v>
@@ -1914,19 +1914,19 @@
         <v>824968</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>796130</v>
+        <v>797754</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>850959</v>
+        <v>851730</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.7783923944342268</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.7511830107655169</v>
+        <v>0.7527148099423454</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.802916318794812</v>
+        <v>0.8036441211746395</v>
       </c>
     </row>
     <row r="21">
@@ -1943,19 +1943,19 @@
         <v>63888</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>50756</v>
+        <v>49296</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>81298</v>
+        <v>78374</v>
       </c>
       <c r="G21" s="6" t="n">
         <v>0.09998864923385921</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.07943639699750367</v>
+        <v>0.07715245224408136</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.1272364129548761</v>
+        <v>0.122661049172833</v>
       </c>
       <c r="J21" s="5" t="n">
         <v>10</v>
@@ -1964,19 +1964,19 @@
         <v>9768</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>4896</v>
+        <v>4205</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>17953</v>
+        <v>17370</v>
       </c>
       <c r="N21" s="6" t="n">
         <v>0.02320865714947026</v>
       </c>
       <c r="O21" s="6" t="n">
-        <v>0.01163193633475986</v>
+        <v>0.009990646865605083</v>
       </c>
       <c r="P21" s="6" t="n">
-        <v>0.04265509599029726</v>
+        <v>0.04127117476874431</v>
       </c>
       <c r="Q21" s="5" t="n">
         <v>73</v>
@@ -1985,19 +1985,19 @@
         <v>73656</v>
       </c>
       <c r="S21" s="5" t="n">
-        <v>59612</v>
+        <v>58831</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>94543</v>
+        <v>89978</v>
       </c>
       <c r="U21" s="6" t="n">
         <v>0.06949747432871645</v>
       </c>
       <c r="V21" s="6" t="n">
-        <v>0.05624607357044172</v>
+        <v>0.05550949263085765</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.08920497600725548</v>
+        <v>0.08489808423932643</v>
       </c>
     </row>
     <row r="22">
@@ -2014,19 +2014,19 @@
         <v>3057</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>986</v>
+        <v>1000</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>8229</v>
+        <v>8235</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.004784015312860409</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.001542786545963438</v>
+        <v>0.001564491140403115</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.01287968041089695</v>
+        <v>0.01288798992511688</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>0</v>
@@ -2048,19 +2048,19 @@
         <v>3057</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>1002</v>
+        <v>997</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>8253</v>
+        <v>8147</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.002884168182204523</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.0009451589621346537</v>
+        <v>0.0009409633618497077</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.007786847039000063</v>
+        <v>0.007687255468330826</v>
       </c>
     </row>
     <row r="23">
@@ -2077,19 +2077,19 @@
         <v>9525</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>3972</v>
+        <v>4677</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>18497</v>
+        <v>18521</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.01490800842431537</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.00621578107379004</v>
+        <v>0.007319368088795191</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.02894955273165338</v>
+        <v>0.02898654871528046</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>1</v>
@@ -2101,7 +2101,7 @@
         <v>0</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>6707</v>
+        <v>5704</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.002672546746926705</v>
@@ -2110,7 +2110,7 @@
         <v>0</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.01593476649728509</v>
+        <v>0.01355272928388567</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>9</v>
@@ -2119,19 +2119,19 @@
         <v>10650</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>4975</v>
+        <v>5158</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>20509</v>
+        <v>20192</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.01004901336684801</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.004694127093349616</v>
+        <v>0.004866452207486417</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.01935130261938663</v>
+        <v>0.01905164974088591</v>
       </c>
     </row>
     <row r="24">
@@ -2148,19 +2148,19 @@
         <v>40982</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>30525</v>
+        <v>29676</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>55071</v>
+        <v>54299</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.06413950922839182</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.04777407144539152</v>
+        <v>0.04644521354241128</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.08618955913283378</v>
+        <v>0.08498244747439543</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>10</v>
@@ -2169,19 +2169,19 @@
         <v>9813</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>4901</v>
+        <v>4950</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>17378</v>
+        <v>17912</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.023314303262862</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.01164371400159657</v>
+        <v>0.01176050737093593</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.04128791517443329</v>
+        <v>0.04255736947769354</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>49</v>
@@ -2190,19 +2190,19 @@
         <v>50795</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>38485</v>
+        <v>38566</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>65170</v>
+        <v>66237</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.04792684155495318</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.03631233286152553</v>
+        <v>0.03638864546618156</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.06149063861316811</v>
+        <v>0.06249725626852132</v>
       </c>
     </row>
     <row r="25">
@@ -2219,19 +2219,19 @@
         <v>8327</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>2846</v>
+        <v>3581</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>17949</v>
+        <v>17934</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.01303254273039597</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.004454065218291624</v>
+        <v>0.005604760393077054</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.02809213812402203</v>
+        <v>0.02806814827393758</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>4</v>
@@ -2240,19 +2240,19 @@
         <v>4162</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>1179</v>
+        <v>1174</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>10554</v>
+        <v>10581</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.009888768217483593</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.002802195895765904</v>
+        <v>0.002789331389498232</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.02507559633903823</v>
+        <v>0.02513871272425124</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>10</v>
@@ -2261,19 +2261,19 @@
         <v>12489</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>6192</v>
+        <v>5941</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>23209</v>
+        <v>23269</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.01178407453011035</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.005842588832732864</v>
+        <v>0.005605749426174682</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.02189826357687719</v>
+        <v>0.0219552800945127</v>
       </c>
     </row>
     <row r="26">
@@ -2290,19 +2290,19 @@
         <v>50602</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>38100</v>
+        <v>38368</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>65543</v>
+        <v>66316</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.07919565008944901</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.05962856288304973</v>
+        <v>0.06004882655863688</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.1025790268336017</v>
+        <v>0.1037896698341952</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>35</v>
@@ -2311,19 +2311,19 @@
         <v>33619</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>24222</v>
+        <v>24146</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>46092</v>
+        <v>46386</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.07987650427398667</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.05754919749822181</v>
+        <v>0.0573691370004614</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.1095114118190796</v>
+        <v>0.1102109027387071</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>83</v>
@@ -2332,19 +2332,19 @@
         <v>84221</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>66779</v>
+        <v>66764</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>104105</v>
+        <v>101751</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.07946603360294063</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.06300907570524761</v>
+        <v>0.06299489303785974</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.09822749840853855</v>
+        <v>0.09600599366521957</v>
       </c>
     </row>
     <row r="27">
@@ -2436,19 +2436,19 @@
         <v>634546</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>608569</v>
+        <v>610041</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>656914</v>
+        <v>656668</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.7548888378103454</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.7239849308283057</v>
+        <v>0.7257362668647911</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.7814985034622042</v>
+        <v>0.7812066831643237</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>534</v>
@@ -2457,19 +2457,19 @@
         <v>562205</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>539589</v>
+        <v>541834</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>580576</v>
+        <v>581060</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.8315970639408289</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.7981443382983301</v>
+        <v>0.801464751342724</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.8587705746368893</v>
+        <v>0.8594864971426892</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>1204</v>
@@ -2478,19 +2478,19 @@
         <v>1196751</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>1163097</v>
+        <v>1162285</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>1226114</v>
+        <v>1226619</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.7890822546324679</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.7668922265539886</v>
+        <v>0.7663565219475734</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.8084427727653831</v>
+        <v>0.8087757318892816</v>
       </c>
     </row>
     <row r="29">
@@ -2507,19 +2507,19 @@
         <v>62607</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>48331</v>
+        <v>49934</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>78461</v>
+        <v>77813</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.07448087684687064</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.05749760904223458</v>
+        <v>0.05940367356967813</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.09334159331660646</v>
+        <v>0.09257063188653979</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>14</v>
@@ -2528,19 +2528,19 @@
         <v>15704</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>8648</v>
+        <v>8477</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>26704</v>
+        <v>25289</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.0232288849248703</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.01279178219927439</v>
+        <v>0.01253941749515531</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.03950020921487358</v>
+        <v>0.03740650383333611</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>82</v>
@@ -2549,19 +2549,19 @@
         <v>78311</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>61958</v>
+        <v>62441</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>95850</v>
+        <v>95899</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.05163481702830592</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.04085190810883693</v>
+        <v>0.04117046460103185</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.06319903561768296</v>
+        <v>0.06323111255890576</v>
       </c>
     </row>
     <row r="30">
@@ -2578,19 +2578,19 @@
         <v>8017</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>3296</v>
+        <v>3424</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>15563</v>
+        <v>16286</v>
       </c>
       <c r="G30" s="6" t="n">
         <v>0.009537321411922213</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>0.003920513095153501</v>
+        <v>0.004072906532441272</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.01851430488088723</v>
+        <v>0.01937416451389152</v>
       </c>
       <c r="J30" s="5" t="n">
         <v>2</v>
@@ -2602,7 +2602,7 @@
         <v>0</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>6974</v>
+        <v>6045</v>
       </c>
       <c r="N30" s="6" t="n">
         <v>0.002891608406566718</v>
@@ -2611,7 +2611,7 @@
         <v>0</v>
       </c>
       <c r="P30" s="6" t="n">
-        <v>0.01031551541799313</v>
+        <v>0.008941653943946753</v>
       </c>
       <c r="Q30" s="5" t="n">
         <v>9</v>
@@ -2620,19 +2620,19 @@
         <v>9972</v>
       </c>
       <c r="S30" s="5" t="n">
-        <v>4869</v>
+        <v>4768</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>18293</v>
+        <v>19330</v>
       </c>
       <c r="U30" s="6" t="n">
         <v>0.00657493202638515</v>
       </c>
       <c r="V30" s="6" t="n">
-        <v>0.003210586085494292</v>
+        <v>0.003143975573409824</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.01206149427008101</v>
+        <v>0.01274499235500535</v>
       </c>
     </row>
     <row r="31">
@@ -2649,19 +2649,19 @@
         <v>8470</v>
       </c>
       <c r="E31" s="5" t="n">
-        <v>3573</v>
+        <v>3593</v>
       </c>
       <c r="F31" s="5" t="n">
-        <v>16642</v>
+        <v>16503</v>
       </c>
       <c r="G31" s="6" t="n">
         <v>0.01007578556582341</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>0.00425113502167523</v>
+        <v>0.004274304657765651</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>0.01979828283686927</v>
+        <v>0.01963275254858879</v>
       </c>
       <c r="J31" s="5" t="n">
         <v>2</v>
@@ -2673,7 +2673,7 @@
         <v>0</v>
       </c>
       <c r="M31" s="5" t="n">
-        <v>6457</v>
+        <v>6540</v>
       </c>
       <c r="N31" s="6" t="n">
         <v>0.002755842049221289</v>
@@ -2682,7 +2682,7 @@
         <v>0</v>
       </c>
       <c r="P31" s="6" t="n">
-        <v>0.009551196675115859</v>
+        <v>0.009674166867369244</v>
       </c>
       <c r="Q31" s="5" t="n">
         <v>10</v>
@@ -2691,19 +2691,19 @@
         <v>10333</v>
       </c>
       <c r="S31" s="5" t="n">
-        <v>5089</v>
+        <v>5191</v>
       </c>
       <c r="T31" s="5" t="n">
-        <v>18533</v>
+        <v>19226</v>
       </c>
       <c r="U31" s="6" t="n">
         <v>0.00681285155726205</v>
       </c>
       <c r="V31" s="6" t="n">
-        <v>0.003355159130307002</v>
+        <v>0.003422549702805421</v>
       </c>
       <c r="W31" s="6" t="n">
-        <v>0.01221991792284504</v>
+        <v>0.01267700923786686</v>
       </c>
     </row>
     <row r="32">
@@ -2720,19 +2720,19 @@
         <v>35451</v>
       </c>
       <c r="E32" s="5" t="n">
-        <v>25561</v>
+        <v>25094</v>
       </c>
       <c r="F32" s="5" t="n">
-        <v>49616</v>
+        <v>49066</v>
       </c>
       <c r="G32" s="6" t="n">
         <v>0.04217398011863412</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.03040842149227102</v>
+        <v>0.02985371992079319</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.05902605270976283</v>
+        <v>0.05837150187806928</v>
       </c>
       <c r="J32" s="5" t="n">
         <v>18</v>
@@ -2741,19 +2741,19 @@
         <v>18734</v>
       </c>
       <c r="L32" s="5" t="n">
-        <v>11847</v>
+        <v>12021</v>
       </c>
       <c r="M32" s="5" t="n">
-        <v>29933</v>
+        <v>30458</v>
       </c>
       <c r="N32" s="6" t="n">
         <v>0.02771059574476591</v>
       </c>
       <c r="O32" s="6" t="n">
-        <v>0.0175242412436097</v>
+        <v>0.01778155882274589</v>
       </c>
       <c r="P32" s="6" t="n">
-        <v>0.04427670463600605</v>
+        <v>0.04505257835699834</v>
       </c>
       <c r="Q32" s="5" t="n">
         <v>54</v>
@@ -2762,19 +2762,19 @@
         <v>54185</v>
       </c>
       <c r="S32" s="5" t="n">
-        <v>42103</v>
+        <v>40856</v>
       </c>
       <c r="T32" s="5" t="n">
-        <v>71547</v>
+        <v>70228</v>
       </c>
       <c r="U32" s="6" t="n">
         <v>0.03572678983016366</v>
       </c>
       <c r="V32" s="6" t="n">
-        <v>0.02776101324360047</v>
+        <v>0.02693856583006434</v>
       </c>
       <c r="W32" s="6" t="n">
-        <v>0.04717461261643548</v>
+        <v>0.04630505584955753</v>
       </c>
     </row>
     <row r="33">
@@ -2791,19 +2791,19 @@
         <v>6027</v>
       </c>
       <c r="E33" s="5" t="n">
-        <v>1805</v>
+        <v>2598</v>
       </c>
       <c r="F33" s="5" t="n">
-        <v>12951</v>
+        <v>12719</v>
       </c>
       <c r="G33" s="6" t="n">
         <v>0.007169691641891285</v>
       </c>
       <c r="H33" s="6" t="n">
-        <v>0.002146763993139805</v>
+        <v>0.003090229693228829</v>
       </c>
       <c r="I33" s="6" t="n">
-        <v>0.0154067766748457</v>
+        <v>0.01513162766424322</v>
       </c>
       <c r="J33" s="5" t="n">
         <v>2</v>
@@ -2815,7 +2815,7 @@
         <v>0</v>
       </c>
       <c r="M33" s="5" t="n">
-        <v>7365</v>
+        <v>7074</v>
       </c>
       <c r="N33" s="6" t="n">
         <v>0.002954940279733318</v>
@@ -2824,7 +2824,7 @@
         <v>0</v>
       </c>
       <c r="P33" s="6" t="n">
-        <v>0.01089424117079811</v>
+        <v>0.01046298946553517</v>
       </c>
       <c r="Q33" s="5" t="n">
         <v>8</v>
@@ -2833,19 +2833,19 @@
         <v>8024</v>
       </c>
       <c r="S33" s="5" t="n">
-        <v>3581</v>
+        <v>3765</v>
       </c>
       <c r="T33" s="5" t="n">
-        <v>15656</v>
+        <v>15666</v>
       </c>
       <c r="U33" s="6" t="n">
         <v>0.00529092638557147</v>
       </c>
       <c r="V33" s="6" t="n">
-        <v>0.002361436915705581</v>
+        <v>0.002482507605438409</v>
       </c>
       <c r="W33" s="6" t="n">
-        <v>0.01032276510171041</v>
+        <v>0.01032948153103218</v>
       </c>
     </row>
     <row r="34">
@@ -2862,19 +2862,19 @@
         <v>85465</v>
       </c>
       <c r="E34" s="5" t="n">
-        <v>70424</v>
+        <v>69643</v>
       </c>
       <c r="F34" s="5" t="n">
-        <v>105198</v>
+        <v>104034</v>
       </c>
       <c r="G34" s="6" t="n">
         <v>0.1016735066045129</v>
       </c>
       <c r="H34" s="6" t="n">
-        <v>0.08377951319862421</v>
+        <v>0.08285145180195984</v>
       </c>
       <c r="I34" s="6" t="n">
-        <v>0.125149301540097</v>
+        <v>0.1237647812867003</v>
       </c>
       <c r="J34" s="5" t="n">
         <v>70</v>
@@ -2883,19 +2883,19 @@
         <v>73596</v>
       </c>
       <c r="L34" s="5" t="n">
-        <v>58954</v>
+        <v>58381</v>
       </c>
       <c r="M34" s="5" t="n">
-        <v>89515</v>
+        <v>91204</v>
       </c>
       <c r="N34" s="6" t="n">
         <v>0.1088610646540136</v>
       </c>
       <c r="O34" s="6" t="n">
-        <v>0.0872030376566217</v>
+        <v>0.08635539409267547</v>
       </c>
       <c r="P34" s="6" t="n">
-        <v>0.132408033991625</v>
+        <v>0.1349068132402243</v>
       </c>
       <c r="Q34" s="5" t="n">
         <v>160</v>
@@ -2904,19 +2904,19 @@
         <v>159061</v>
       </c>
       <c r="S34" s="5" t="n">
-        <v>138159</v>
+        <v>136442</v>
       </c>
       <c r="T34" s="5" t="n">
-        <v>186916</v>
+        <v>184171</v>
       </c>
       <c r="U34" s="6" t="n">
         <v>0.1048774285398438</v>
       </c>
       <c r="V34" s="6" t="n">
-        <v>0.09109573056082292</v>
+        <v>0.0899635198687783</v>
       </c>
       <c r="W34" s="6" t="n">
-        <v>0.1232439158017865</v>
+        <v>0.121433653034003</v>
       </c>
     </row>
     <row r="35">
@@ -3008,19 +3008,19 @@
         <v>2202511</v>
       </c>
       <c r="E36" s="5" t="n">
-        <v>2153939</v>
+        <v>2155558</v>
       </c>
       <c r="F36" s="5" t="n">
-        <v>2250693</v>
+        <v>2253951</v>
       </c>
       <c r="G36" s="6" t="n">
         <v>0.7395088960797731</v>
       </c>
       <c r="H36" s="6" t="n">
-        <v>0.7232005911032675</v>
+        <v>0.7237439742167099</v>
       </c>
       <c r="I36" s="6" t="n">
-        <v>0.755686383024888</v>
+        <v>0.7567801103210526</v>
       </c>
       <c r="J36" s="5" t="n">
         <v>1751</v>
@@ -3029,19 +3029,19 @@
         <v>1810558</v>
       </c>
       <c r="L36" s="5" t="n">
-        <v>1772919</v>
+        <v>1779623</v>
       </c>
       <c r="M36" s="5" t="n">
-        <v>1839436</v>
+        <v>1840378</v>
       </c>
       <c r="N36" s="6" t="n">
         <v>0.8502811217372491</v>
       </c>
       <c r="O36" s="6" t="n">
-        <v>0.8326051692871124</v>
+        <v>0.8357532244538263</v>
       </c>
       <c r="P36" s="6" t="n">
-        <v>0.8638429859281429</v>
+        <v>0.8642854226459288</v>
       </c>
       <c r="Q36" s="5" t="n">
         <v>3901</v>
@@ -3050,19 +3050,19 @@
         <v>4013069</v>
       </c>
       <c r="S36" s="5" t="n">
-        <v>3953861</v>
+        <v>3950105</v>
       </c>
       <c r="T36" s="5" t="n">
-        <v>4070857</v>
+        <v>4069997</v>
       </c>
       <c r="U36" s="6" t="n">
         <v>0.7856889959771021</v>
       </c>
       <c r="V36" s="6" t="n">
-        <v>0.7740970478435771</v>
+        <v>0.7733617494069582</v>
       </c>
       <c r="W36" s="6" t="n">
-        <v>0.7970028457535916</v>
+        <v>0.7968344605922161</v>
       </c>
     </row>
     <row r="37">
@@ -3079,19 +3079,19 @@
         <v>189091</v>
       </c>
       <c r="E37" s="5" t="n">
-        <v>162671</v>
+        <v>162301</v>
       </c>
       <c r="F37" s="5" t="n">
-        <v>216834</v>
+        <v>216599</v>
       </c>
       <c r="G37" s="6" t="n">
         <v>0.0634885192281726</v>
       </c>
       <c r="H37" s="6" t="n">
-        <v>0.05461798052080565</v>
+        <v>0.05449361789031446</v>
       </c>
       <c r="I37" s="6" t="n">
-        <v>0.0728035829150912</v>
+        <v>0.0727246876078696</v>
       </c>
       <c r="J37" s="5" t="n">
         <v>37</v>
@@ -3100,19 +3100,19 @@
         <v>39525</v>
       </c>
       <c r="L37" s="5" t="n">
-        <v>28223</v>
+        <v>27625</v>
       </c>
       <c r="M37" s="5" t="n">
-        <v>53006</v>
+        <v>54839</v>
       </c>
       <c r="N37" s="6" t="n">
         <v>0.01856187560610743</v>
       </c>
       <c r="O37" s="6" t="n">
-        <v>0.01325409833771042</v>
+        <v>0.01297319284069707</v>
       </c>
       <c r="P37" s="6" t="n">
-        <v>0.02489268309566221</v>
+        <v>0.0257534721308512</v>
       </c>
       <c r="Q37" s="5" t="n">
         <v>224</v>
@@ -3121,19 +3121,19 @@
         <v>228616</v>
       </c>
       <c r="S37" s="5" t="n">
-        <v>198665</v>
+        <v>199871</v>
       </c>
       <c r="T37" s="5" t="n">
-        <v>259304</v>
+        <v>261250</v>
       </c>
       <c r="U37" s="6" t="n">
         <v>0.04475894258380693</v>
       </c>
       <c r="V37" s="6" t="n">
-        <v>0.03889521648987803</v>
+        <v>0.03913121550532589</v>
       </c>
       <c r="W37" s="6" t="n">
-        <v>0.05076720151685449</v>
+        <v>0.05114812830452894</v>
       </c>
     </row>
     <row r="38">
@@ -3150,19 +3150,19 @@
         <v>21415</v>
       </c>
       <c r="E38" s="5" t="n">
-        <v>13431</v>
+        <v>13588</v>
       </c>
       <c r="F38" s="5" t="n">
-        <v>32778</v>
+        <v>32803</v>
       </c>
       <c r="G38" s="6" t="n">
         <v>0.007190356022935449</v>
       </c>
       <c r="H38" s="6" t="n">
-        <v>0.004509516101365993</v>
+        <v>0.004562256980049671</v>
       </c>
       <c r="I38" s="6" t="n">
-        <v>0.01100555640562837</v>
+        <v>0.01101377092718804</v>
       </c>
       <c r="J38" s="5" t="n">
         <v>6</v>
@@ -3171,19 +3171,19 @@
         <v>5829</v>
       </c>
       <c r="L38" s="5" t="n">
-        <v>2763</v>
+        <v>1985</v>
       </c>
       <c r="M38" s="5" t="n">
-        <v>12147</v>
+        <v>12402</v>
       </c>
       <c r="N38" s="6" t="n">
         <v>0.002737499232176487</v>
       </c>
       <c r="O38" s="6" t="n">
-        <v>0.001297635527155091</v>
+        <v>0.0009321098355403313</v>
       </c>
       <c r="P38" s="6" t="n">
-        <v>0.005704729928518944</v>
+        <v>0.005824317161898325</v>
       </c>
       <c r="Q38" s="5" t="n">
         <v>26</v>
@@ -3192,19 +3192,19 @@
         <v>27244</v>
       </c>
       <c r="S38" s="5" t="n">
-        <v>18451</v>
+        <v>17782</v>
       </c>
       <c r="T38" s="5" t="n">
-        <v>39655</v>
+        <v>39329</v>
       </c>
       <c r="U38" s="6" t="n">
         <v>0.005333993832817529</v>
       </c>
       <c r="V38" s="6" t="n">
-        <v>0.003612373108510408</v>
+        <v>0.00348147329579977</v>
       </c>
       <c r="W38" s="6" t="n">
-        <v>0.007763733043229032</v>
+        <v>0.007700007743343319</v>
       </c>
     </row>
     <row r="39">
@@ -3221,19 +3221,19 @@
         <v>28303</v>
       </c>
       <c r="E39" s="5" t="n">
-        <v>18226</v>
+        <v>18467</v>
       </c>
       <c r="F39" s="5" t="n">
-        <v>40334</v>
+        <v>42245</v>
       </c>
       <c r="G39" s="6" t="n">
         <v>0.009503048581289751</v>
       </c>
       <c r="H39" s="6" t="n">
-        <v>0.00611962613802428</v>
+        <v>0.006200458969193894</v>
       </c>
       <c r="I39" s="6" t="n">
-        <v>0.01354251789954598</v>
+        <v>0.01418403838387495</v>
       </c>
       <c r="J39" s="5" t="n">
         <v>5</v>
@@ -3242,19 +3242,19 @@
         <v>5079</v>
       </c>
       <c r="L39" s="5" t="n">
-        <v>1886</v>
+        <v>1878</v>
       </c>
       <c r="M39" s="5" t="n">
-        <v>10614</v>
+        <v>11460</v>
       </c>
       <c r="N39" s="6" t="n">
         <v>0.002385397067825665</v>
       </c>
       <c r="O39" s="6" t="n">
-        <v>0.000885910819250141</v>
+        <v>0.0008818885627809542</v>
       </c>
       <c r="P39" s="6" t="n">
-        <v>0.004984489901744183</v>
+        <v>0.0053820698570766</v>
       </c>
       <c r="Q39" s="5" t="n">
         <v>31</v>
@@ -3263,19 +3263,19 @@
         <v>33383</v>
       </c>
       <c r="S39" s="5" t="n">
-        <v>23000</v>
+        <v>23342</v>
       </c>
       <c r="T39" s="5" t="n">
-        <v>48722</v>
+        <v>48517</v>
       </c>
       <c r="U39" s="6" t="n">
         <v>0.006535753702314258</v>
       </c>
       <c r="V39" s="6" t="n">
-        <v>0.004502976189117838</v>
+        <v>0.00457003092950409</v>
       </c>
       <c r="W39" s="6" t="n">
-        <v>0.009538946678713805</v>
+        <v>0.009498718803642102</v>
       </c>
     </row>
     <row r="40">
@@ -3292,19 +3292,19 @@
         <v>161165</v>
       </c>
       <c r="E40" s="5" t="n">
-        <v>138463</v>
+        <v>136896</v>
       </c>
       <c r="F40" s="5" t="n">
-        <v>187174</v>
+        <v>190719</v>
       </c>
       <c r="G40" s="6" t="n">
         <v>0.05411229751441218</v>
       </c>
       <c r="H40" s="6" t="n">
-        <v>0.04648997241463422</v>
+        <v>0.04596365881384796</v>
       </c>
       <c r="I40" s="6" t="n">
-        <v>0.06284517034130874</v>
+        <v>0.06403530665894758</v>
       </c>
       <c r="J40" s="5" t="n">
         <v>49</v>
@@ -3313,19 +3313,19 @@
         <v>51774</v>
       </c>
       <c r="L40" s="5" t="n">
-        <v>38497</v>
+        <v>37429</v>
       </c>
       <c r="M40" s="5" t="n">
-        <v>67794</v>
+        <v>67607</v>
       </c>
       <c r="N40" s="6" t="n">
         <v>0.02431417458292755</v>
       </c>
       <c r="O40" s="6" t="n">
-        <v>0.01807911938051117</v>
+        <v>0.01757736608293192</v>
       </c>
       <c r="P40" s="6" t="n">
-        <v>0.03183771192227435</v>
+        <v>0.03174994524959211</v>
       </c>
       <c r="Q40" s="5" t="n">
         <v>205</v>
@@ -3334,19 +3334,19 @@
         <v>212939</v>
       </c>
       <c r="S40" s="5" t="n">
-        <v>183150</v>
+        <v>187698</v>
       </c>
       <c r="T40" s="5" t="n">
-        <v>243072</v>
+        <v>243227</v>
       </c>
       <c r="U40" s="6" t="n">
         <v>0.04168968629069359</v>
       </c>
       <c r="V40" s="6" t="n">
-        <v>0.03585762810820388</v>
+        <v>0.03674800029301867</v>
       </c>
       <c r="W40" s="6" t="n">
-        <v>0.04758932679256736</v>
+        <v>0.04761967951550304</v>
       </c>
     </row>
     <row r="41">
@@ -3363,19 +3363,19 @@
         <v>34985</v>
       </c>
       <c r="E41" s="5" t="n">
-        <v>24800</v>
+        <v>23235</v>
       </c>
       <c r="F41" s="5" t="n">
-        <v>50304</v>
+        <v>49315</v>
       </c>
       <c r="G41" s="6" t="n">
         <v>0.01174648542015007</v>
       </c>
       <c r="H41" s="6" t="n">
-        <v>0.008326902882157363</v>
+        <v>0.00780120425843561</v>
       </c>
       <c r="I41" s="6" t="n">
-        <v>0.01688994514499507</v>
+        <v>0.01655796217232879</v>
       </c>
       <c r="J41" s="5" t="n">
         <v>7</v>
@@ -3384,19 +3384,19 @@
         <v>7099</v>
       </c>
       <c r="L41" s="5" t="n">
-        <v>2957</v>
+        <v>3010</v>
       </c>
       <c r="M41" s="5" t="n">
-        <v>14682</v>
+        <v>15207</v>
       </c>
       <c r="N41" s="6" t="n">
         <v>0.003334084944817768</v>
       </c>
       <c r="O41" s="6" t="n">
-        <v>0.001388810026193021</v>
+        <v>0.001413641426294367</v>
       </c>
       <c r="P41" s="6" t="n">
-        <v>0.006894937657581237</v>
+        <v>0.007141521018659225</v>
       </c>
       <c r="Q41" s="5" t="n">
         <v>37</v>
@@ -3405,19 +3405,19 @@
         <v>42085</v>
       </c>
       <c r="S41" s="5" t="n">
-        <v>30169</v>
+        <v>30613</v>
       </c>
       <c r="T41" s="5" t="n">
-        <v>57826</v>
+        <v>57890</v>
       </c>
       <c r="U41" s="6" t="n">
         <v>0.008239419528665344</v>
       </c>
       <c r="V41" s="6" t="n">
-        <v>0.005906491836150746</v>
+        <v>0.005993440794202644</v>
       </c>
       <c r="W41" s="6" t="n">
-        <v>0.01132137534725925</v>
+        <v>0.01133381491247414</v>
       </c>
     </row>
     <row r="42">
@@ -3434,19 +3434,19 @@
         <v>340873</v>
       </c>
       <c r="E42" s="5" t="n">
-        <v>307608</v>
+        <v>304874</v>
       </c>
       <c r="F42" s="5" t="n">
-        <v>380127</v>
+        <v>377502</v>
       </c>
       <c r="G42" s="6" t="n">
         <v>0.1144503971532669</v>
       </c>
       <c r="H42" s="6" t="n">
-        <v>0.1032815194667922</v>
+        <v>0.1023634675532856</v>
       </c>
       <c r="I42" s="6" t="n">
-        <v>0.1276305121560344</v>
+        <v>0.1267489435152933</v>
       </c>
       <c r="J42" s="5" t="n">
         <v>203</v>
@@ -3455,19 +3455,19 @@
         <v>209499</v>
       </c>
       <c r="L42" s="5" t="n">
-        <v>184284</v>
+        <v>185308</v>
       </c>
       <c r="M42" s="5" t="n">
-        <v>239083</v>
+        <v>238475</v>
       </c>
       <c r="N42" s="6" t="n">
         <v>0.09838584682889599</v>
       </c>
       <c r="O42" s="6" t="n">
-        <v>0.08654403196194224</v>
+        <v>0.08702516722114406</v>
       </c>
       <c r="P42" s="6" t="n">
-        <v>0.1122790512202062</v>
+        <v>0.1119936127960393</v>
       </c>
       <c r="Q42" s="5" t="n">
         <v>542</v>
@@ -3476,19 +3476,19 @@
         <v>550372</v>
       </c>
       <c r="S42" s="5" t="n">
-        <v>507814</v>
+        <v>507150</v>
       </c>
       <c r="T42" s="5" t="n">
-        <v>594423</v>
+        <v>597191</v>
       </c>
       <c r="U42" s="6" t="n">
         <v>0.1077532080846003</v>
       </c>
       <c r="V42" s="6" t="n">
-        <v>0.0994212125491704</v>
+        <v>0.099291065392241</v>
       </c>
       <c r="W42" s="6" t="n">
-        <v>0.1163777067850925</v>
+        <v>0.1169196207900476</v>
       </c>
     </row>
     <row r="43">
@@ -3820,19 +3820,19 @@
         <v>489470</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>463186</v>
+        <v>464092</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>511946</v>
+        <v>508867</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.7455575939076619</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.7055217456883982</v>
+        <v>0.7069021882064392</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.779793667268358</v>
+        <v>0.775103200761588</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>380</v>
@@ -3841,19 +3841,19 @@
         <v>409890</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>390065</v>
+        <v>392420</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>424044</v>
+        <v>423840</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.839595599751275</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.7989884893201864</v>
+        <v>0.8038108320928089</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.8685884581225327</v>
+        <v>0.8681709809663213</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>845</v>
@@ -3862,19 +3862,19 @@
         <v>899359</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>869925</v>
+        <v>872697</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>926317</v>
+        <v>927010</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.7856630115299554</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.7599500090072606</v>
+        <v>0.7623708715384048</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.8092123091965415</v>
+        <v>0.809817693211461</v>
       </c>
     </row>
     <row r="5">
@@ -3891,19 +3891,19 @@
         <v>24965</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>15488</v>
+        <v>16430</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>36266</v>
+        <v>36365</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.03802712049564977</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.02359107485414962</v>
+        <v>0.02502542236579165</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.05524030051787843</v>
+        <v>0.05539145544644278</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>5</v>
@@ -3912,19 +3912,19 @@
         <v>5136</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>1990</v>
+        <v>1964</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>10875</v>
+        <v>11144</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.01051980312589021</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.004077208737188772</v>
+        <v>0.004023005214576524</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.02227501572939171</v>
+        <v>0.02282653339581541</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>28</v>
@@ -3933,19 +3933,19 @@
         <v>30101</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>19928</v>
+        <v>20628</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>42837</v>
+        <v>43072</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.02629577378230276</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.01740877185436215</v>
+        <v>0.0180198746020498</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.03742169400947779</v>
+        <v>0.03762648052320983</v>
       </c>
     </row>
     <row r="6">
@@ -3962,19 +3962,19 @@
         <v>5672</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>1990</v>
+        <v>1847</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>13805</v>
+        <v>13254</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.008639476339972507</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.003030576283554121</v>
+        <v>0.002813339580340129</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.02102817660252366</v>
+        <v>0.0201890737279436</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>1</v>
@@ -3986,7 +3986,7 @@
         <v>0</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>4687</v>
+        <v>4936</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.001915545563107012</v>
@@ -3995,7 +3995,7 @@
         <v>0</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.009599977691913042</v>
+        <v>0.01010994772393666</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>6</v>
@@ -4004,19 +4004,19 @@
         <v>6607</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>2683</v>
+        <v>2808</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>14380</v>
+        <v>14662</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.005771847986410404</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.002344131541536894</v>
+        <v>0.002452645345342377</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.01256247490385715</v>
+        <v>0.01280853511834045</v>
       </c>
     </row>
     <row r="7">
@@ -4049,7 +4049,7 @@
         <v>0</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>6481</v>
+        <v>7224</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.004288848657122012</v>
@@ -4058,7 +4058,7 @@
         <v>0</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.01327625266622514</v>
+        <v>0.01479809956197402</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>2</v>
@@ -4070,7 +4070,7 @@
         <v>0</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>7491</v>
+        <v>7502</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.001829112229354805</v>
@@ -4079,7 +4079,7 @@
         <v>0</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.006543591216562668</v>
+        <v>0.006553438039335995</v>
       </c>
     </row>
     <row r="8">
@@ -4096,19 +4096,19 @@
         <v>17691</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>11390</v>
+        <v>10882</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>28418</v>
+        <v>27394</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.02694619988800232</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.01734909632349456</v>
+        <v>0.01657506415959276</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.04328639308513476</v>
+        <v>0.04172694722131318</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>9</v>
@@ -4117,19 +4117,19 @@
         <v>8925</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>3970</v>
+        <v>4760</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>16028</v>
+        <v>16816</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.01828222160544081</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.008131105754828271</v>
+        <v>0.009750553440899583</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.03283000291427454</v>
+        <v>0.03444559168455859</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>27</v>
@@ -4138,19 +4138,19 @@
         <v>26616</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>17432</v>
+        <v>17994</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>37818</v>
+        <v>37309</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.02325117824036696</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.0152286768628254</v>
+        <v>0.01571915369902873</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.03303716309019842</v>
+        <v>0.0325925642926588</v>
       </c>
     </row>
     <row r="9">
@@ -4167,19 +4167,19 @@
         <v>3837</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>1064</v>
+        <v>1078</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>8974</v>
+        <v>9666</v>
       </c>
       <c r="G9" s="6" t="n">
         <v>0.005845206302981552</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.001620303632636339</v>
+        <v>0.00164252357705743</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.01366898958926963</v>
+        <v>0.0147232301486618</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>2</v>
@@ -4191,7 +4191,7 @@
         <v>0</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>7033</v>
+        <v>6228</v>
       </c>
       <c r="N9" s="6" t="n">
         <v>0.004189933153691916</v>
@@ -4200,7 +4200,7 @@
         <v>0</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.01440656254152625</v>
+        <v>0.01275679520055525</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>6</v>
@@ -4209,19 +4209,19 @@
         <v>5883</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>2093</v>
+        <v>2604</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>12991</v>
+        <v>12198</v>
       </c>
       <c r="U9" s="6" t="n">
         <v>0.005139263845613516</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.001828296398573547</v>
+        <v>0.002275216388540469</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.01134828876476476</v>
+        <v>0.0106557101285319</v>
       </c>
     </row>
     <row r="10">
@@ -4238,19 +4238,19 @@
         <v>114880</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>97337</v>
+        <v>95691</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>135195</v>
+        <v>134837</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.174984403065732</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.1482625903173505</v>
+        <v>0.1457553266521378</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.2059288024236079</v>
+        <v>0.2053823684439096</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>56</v>
@@ -4259,19 +4259,19 @@
         <v>59174</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>46884</v>
+        <v>46004</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>75352</v>
+        <v>74306</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.1212080481434731</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.0960356077965703</v>
+        <v>0.09423181379378476</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.1543467070190819</v>
+        <v>0.1522048507001753</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>169</v>
@@ -4280,19 +4280,19 @@
         <v>174054</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>149250</v>
+        <v>150146</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>199842</v>
+        <v>198955</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.1520498123859961</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.1303816122769868</v>
+        <v>0.1311647927364756</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.1745779529487067</v>
+        <v>0.1738034433423572</v>
       </c>
     </row>
     <row r="11">
@@ -4384,19 +4384,19 @@
         <v>721697</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>698086</v>
+        <v>696073</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>747284</v>
+        <v>747988</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.7755250574643483</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.7501521034165171</v>
+        <v>0.7479897631194719</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.8030202577683674</v>
+        <v>0.8037769976277699</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>571</v>
@@ -4405,19 +4405,19 @@
         <v>625924</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>605084</v>
+        <v>603154</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>645424</v>
+        <v>646987</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.8498016974838233</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.8215074853719762</v>
+        <v>0.8188868439165482</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.8762767260745847</v>
+        <v>0.8783983778326784</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>1232</v>
@@ -4426,19 +4426,19 @@
         <v>1347622</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>1309513</v>
+        <v>1311029</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>1382245</v>
+        <v>1380562</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.8083408550174256</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.7854819595160473</v>
+        <v>0.786391366619373</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.8291085976399202</v>
+        <v>0.8280988841948042</v>
       </c>
     </row>
     <row r="13">
@@ -4455,19 +4455,19 @@
         <v>31162</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>21300</v>
+        <v>21666</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>44184</v>
+        <v>44392</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.03348625561703492</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.02288864845318663</v>
+        <v>0.02328211982631666</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.04747942391288822</v>
+        <v>0.04770328618688609</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>8</v>
@@ -4476,19 +4476,19 @@
         <v>9599</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>4244</v>
+        <v>4295</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>18343</v>
+        <v>18239</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.01303233234543569</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.005762364142588081</v>
+        <v>0.005830849709837011</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.02490409482954428</v>
+        <v>0.02476207987836784</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>37</v>
@@ -4497,19 +4497,19 @@
         <v>40761</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>29868</v>
+        <v>29544</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>56175</v>
+        <v>56188</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.024449608225998</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.01791551690339533</v>
+        <v>0.01772130791941063</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.03369502893825967</v>
+        <v>0.03370322846085773</v>
       </c>
     </row>
     <row r="14">
@@ -4526,19 +4526,19 @@
         <v>9584</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>3303</v>
+        <v>3318</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>18922</v>
+        <v>19902</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.01029881421756252</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.00354921083201699</v>
+        <v>0.003565250729139143</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.02033354452608913</v>
+        <v>0.02138628458716125</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>5</v>
@@ -4547,19 +4547,19 @@
         <v>5538</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>2124</v>
+        <v>2101</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>12648</v>
+        <v>12377</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.007518285711809587</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.002883104121181256</v>
+        <v>0.002852767374694965</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.01717191256937387</v>
+        <v>0.01680356495098947</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>12</v>
@@ -4568,19 +4568,19 @@
         <v>15122</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>8512</v>
+        <v>7591</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>26277</v>
+        <v>27166</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.009070362573661764</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.005105532929943657</v>
+        <v>0.004553207733051832</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.01576177038205921</v>
+        <v>0.01629464932160773</v>
       </c>
     </row>
     <row r="15">
@@ -4597,19 +4597,19 @@
         <v>7772</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>3119</v>
+        <v>3170</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>17973</v>
+        <v>18210</v>
       </c>
       <c r="G15" s="6" t="n">
         <v>0.008351817397133103</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>0.003351095176721324</v>
+        <v>0.003405915542667584</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.01931399779179836</v>
+        <v>0.01956847833846059</v>
       </c>
       <c r="J15" s="5" t="n">
         <v>0</v>
@@ -4631,19 +4631,19 @@
         <v>7772</v>
       </c>
       <c r="S15" s="5" t="n">
-        <v>3150</v>
+        <v>3031</v>
       </c>
       <c r="T15" s="5" t="n">
-        <v>16520</v>
+        <v>16754</v>
       </c>
       <c r="U15" s="6" t="n">
         <v>0.00466194196883251</v>
       </c>
       <c r="V15" s="6" t="n">
-        <v>0.001889260970226979</v>
+        <v>0.001817794803401224</v>
       </c>
       <c r="W15" s="6" t="n">
-        <v>0.009909187320643121</v>
+        <v>0.01004964519665801</v>
       </c>
     </row>
     <row r="16">
@@ -4660,19 +4660,19 @@
         <v>31829</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>21628</v>
+        <v>21992</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>44169</v>
+        <v>44293</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.03420311853097816</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.02324159391691081</v>
+        <v>0.0236323077388596</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.04746324037980681</v>
+        <v>0.04759662395412394</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>9</v>
@@ -4681,19 +4681,19 @@
         <v>11161</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>5313</v>
+        <v>5943</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>21918</v>
+        <v>20220</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.01515311649717143</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.007213269370690566</v>
+        <v>0.008068909466200791</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.02975706631682372</v>
+        <v>0.02745175937961783</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>40</v>
@@ -4702,19 +4702,19 @@
         <v>42990</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>29713</v>
+        <v>31318</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>58018</v>
+        <v>58725</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.02578673068732767</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.01782291304559022</v>
+        <v>0.0187854480881948</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.03480097523720632</v>
+        <v>0.03522515553609145</v>
       </c>
     </row>
     <row r="17">
@@ -4731,19 +4731,19 @@
         <v>9041</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>4154</v>
+        <v>3965</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>18139</v>
+        <v>18283</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.009715821487152368</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.004463763690927526</v>
+        <v>0.00426075059961863</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.01949240589876621</v>
+        <v>0.0196471252308225</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>7</v>
@@ -4752,19 +4752,19 @@
         <v>8347</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>4044</v>
+        <v>4025</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>17330</v>
+        <v>17957</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.01133237946672624</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.005490112467279864</v>
+        <v>0.005465148604889446</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.02352793026325804</v>
+        <v>0.02437950930402744</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>15</v>
@@ -4773,19 +4773,19 @@
         <v>17388</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>9831</v>
+        <v>10074</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>27181</v>
+        <v>28827</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.01043002502916233</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.005896968716345201</v>
+        <v>0.006042661200862764</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.01630408987708401</v>
+        <v>0.01729113340238706</v>
       </c>
     </row>
     <row r="18">
@@ -4802,19 +4802,19 @@
         <v>119506</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>100676</v>
+        <v>99415</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>140892</v>
+        <v>141179</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.1284191152857906</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.1081843833489986</v>
+        <v>0.1068298004293441</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.1514003212976107</v>
+        <v>0.1517086301856886</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>65</v>
@@ -4823,19 +4823,19 @@
         <v>75984</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>59001</v>
+        <v>59733</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>95198</v>
+        <v>95508</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.1031621884950338</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.08010364428145179</v>
+        <v>0.08109857468442799</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.1292485345680614</v>
+        <v>0.1296682722304646</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>175</v>
@@ -4844,19 +4844,19 @@
         <v>195490</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>168652</v>
+        <v>170738</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>224451</v>
+        <v>224913</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.1172604764975921</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.1011622168235099</v>
+        <v>0.1024135281784785</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.1346316796452997</v>
+        <v>0.1349091510488853</v>
       </c>
     </row>
     <row r="19">
@@ -4948,19 +4948,19 @@
         <v>530228</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>503271</v>
+        <v>503651</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>553414</v>
+        <v>552313</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.7603971063156879</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.721737879071721</v>
+        <v>0.7222836653985533</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.7936482028880183</v>
+        <v>0.7920691221541792</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>392</v>
@@ -4969,19 +4969,19 @@
         <v>436553</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>418001</v>
+        <v>420775</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>451466</v>
+        <v>450670</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.8651173588479879</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.8283526389079979</v>
+        <v>0.8338510457013193</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.8946715102296469</v>
+        <v>0.8930933827904399</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>877</v>
@@ -4990,19 +4990,19 @@
         <v>966781</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>938282</v>
+        <v>934440</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>996387</v>
+        <v>996313</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.8043630733628269</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.7806518860035627</v>
+        <v>0.7774557169893375</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.8289951802448167</v>
+        <v>0.8289342530991046</v>
       </c>
     </row>
     <row r="21">
@@ -5019,19 +5019,19 @@
         <v>46793</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>34737</v>
+        <v>33662</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>64444</v>
+        <v>62918</v>
       </c>
       <c r="G21" s="6" t="n">
         <v>0.0671054532012588</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.04981617788051987</v>
+        <v>0.0482750965343361</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.09241849947457718</v>
+        <v>0.09023044380926355</v>
       </c>
       <c r="J21" s="5" t="n">
         <v>11</v>
@@ -5040,19 +5040,19 @@
         <v>11716</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>5905</v>
+        <v>5903</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>20812</v>
+        <v>20710</v>
       </c>
       <c r="N21" s="6" t="n">
         <v>0.02321757448626818</v>
       </c>
       <c r="O21" s="6" t="n">
-        <v>0.01170117957650552</v>
+        <v>0.01169774094645706</v>
       </c>
       <c r="P21" s="6" t="n">
-        <v>0.04124392884122863</v>
+        <v>0.04104146550751814</v>
       </c>
       <c r="Q21" s="5" t="n">
         <v>50</v>
@@ -5061,19 +5061,19 @@
         <v>58509</v>
       </c>
       <c r="S21" s="5" t="n">
-        <v>44529</v>
+        <v>42161</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>77564</v>
+        <v>76496</v>
       </c>
       <c r="U21" s="6" t="n">
         <v>0.04867947558287069</v>
       </c>
       <c r="V21" s="6" t="n">
-        <v>0.03704842893191255</v>
+        <v>0.03507792633719115</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.06453338399513905</v>
+        <v>0.06364447798164904</v>
       </c>
     </row>
     <row r="22">
@@ -5093,7 +5093,7 @@
         <v>0</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>7333</v>
+        <v>7325</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.002971498582557476</v>
@@ -5102,7 +5102,7 @@
         <v>0</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.01051573390745951</v>
+        <v>0.01050412090795442</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>3</v>
@@ -5114,16 +5114,16 @@
         <v>976</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>10712</v>
+        <v>10290</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.007546162087183278</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.001935103415482162</v>
+        <v>0.00193328792784248</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.0212272792836749</v>
+        <v>0.02039235479243337</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>5</v>
@@ -5132,19 +5132,19 @@
         <v>5880</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>1972</v>
+        <v>1981</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>13597</v>
+        <v>13683</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.004892134753999966</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.00164108820845843</v>
+        <v>0.001647900388585761</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.01131238762715</v>
+        <v>0.01138407272238659</v>
       </c>
     </row>
     <row r="23">
@@ -5161,19 +5161,19 @@
         <v>5466</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>1962</v>
+        <v>2021</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>12081</v>
+        <v>12284</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.007839243799041972</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.002814068569920875</v>
+        <v>0.002898156145027334</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.01732502343023044</v>
+        <v>0.01761665052509726</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>1</v>
@@ -5185,7 +5185,7 @@
         <v>0</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>6074</v>
+        <v>6051</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.002378541101871024</v>
@@ -5194,7 +5194,7 @@
         <v>0</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.0120378057856695</v>
+        <v>0.0119908799705014</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>6</v>
@@ -5203,19 +5203,19 @@
         <v>6667</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>2999</v>
+        <v>2898</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>13556</v>
+        <v>14456</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.005546611103527903</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.002495362266630286</v>
+        <v>0.002411115497935617</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.01127832253550788</v>
+        <v>0.01202747725793609</v>
       </c>
     </row>
     <row r="24">
@@ -5232,19 +5232,19 @@
         <v>28659</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>18289</v>
+        <v>19521</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>42628</v>
+        <v>41510</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.04109954909743415</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.02622778092359456</v>
+        <v>0.02799515581494935</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.06113191292152535</v>
+        <v>0.05952976422663669</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>7</v>
@@ -5253,19 +5253,19 @@
         <v>7397</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>3094</v>
+        <v>3338</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>14778</v>
+        <v>14560</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.01465855144956225</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.0061313821725326</v>
+        <v>0.00661531819432356</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.02928462319937554</v>
+        <v>0.02885445652976455</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>32</v>
@@ -5274,19 +5274,19 @@
         <v>36056</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>24005</v>
+        <v>24769</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>50143</v>
+        <v>49948</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.02999850605018546</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.01997199402008742</v>
+        <v>0.02060756149100475</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.04171918075798934</v>
+        <v>0.04155699443086043</v>
       </c>
     </row>
     <row r="25">
@@ -5303,19 +5303,19 @@
         <v>16994</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>9633</v>
+        <v>9618</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>28951</v>
+        <v>29531</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.02437164163596832</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.01381469726436559</v>
+        <v>0.01379275115708658</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.04151778933619473</v>
+        <v>0.04234978447917107</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>3</v>
@@ -5324,19 +5324,19 @@
         <v>3022</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>984</v>
+        <v>982</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>8403</v>
+        <v>9930</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.005987975488883435</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.00194906475195478</v>
+        <v>0.001945284706084077</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.01665221156559836</v>
+        <v>0.01967827363247902</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>17</v>
@@ -5345,19 +5345,19 @@
         <v>20016</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>12688</v>
+        <v>11980</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>33432</v>
+        <v>32181</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.01665340528260353</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.0105562635931209</v>
+        <v>0.009967223476425348</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.0278150985906176</v>
+        <v>0.02677441037464999</v>
       </c>
     </row>
     <row r="26">
@@ -5374,19 +5374,19 @@
         <v>67091</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>53006</v>
+        <v>51800</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>86259</v>
+        <v>85182</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.0962155073680514</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.07601509073218946</v>
+        <v>0.07428597121013278</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.1237041375300926</v>
+        <v>0.1221595590419422</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>37</v>
@@ -5395,19 +5395,19 @@
         <v>40921</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>29344</v>
+        <v>30967</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>55480</v>
+        <v>56324</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.08109383653824395</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.05815012845077083</v>
+        <v>0.06136747414149824</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.109945337118067</v>
+        <v>0.1116175955638026</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>98</v>
@@ -5416,19 +5416,19 @@
         <v>108013</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>87679</v>
+        <v>87936</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>129685</v>
+        <v>131670</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.08986679386398556</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.07294868599258596</v>
+        <v>0.07316255033061492</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.1078980017013972</v>
+        <v>0.1095494236758305</v>
       </c>
     </row>
     <row r="27">
@@ -5520,19 +5520,19 @@
         <v>642940</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>615831</v>
+        <v>617348</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>668196</v>
+        <v>668546</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.7522407594289838</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.7205225195673999</v>
+        <v>0.7222974125222069</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.7817906708225856</v>
+        <v>0.7822000414259948</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>565</v>
@@ -5541,19 +5541,19 @@
         <v>597115</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>577455</v>
+        <v>575446</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>616179</v>
+        <v>616517</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.8515779530949786</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.8235386093783119</v>
+        <v>0.8206746849326501</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.8787653222479695</v>
+        <v>0.87924716163742</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>1176</v>
@@ -5562,19 +5562,19 @@
         <v>1240056</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>1207602</v>
+        <v>1203859</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>1269687</v>
+        <v>1269492</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.7970087824849388</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.7761499172767304</v>
+        <v>0.773744260253322</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.8160537840644649</v>
+        <v>0.8159279525663981</v>
       </c>
     </row>
     <row r="29">
@@ -5591,19 +5591,19 @@
         <v>69439</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>53642</v>
+        <v>53883</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>87936</v>
+        <v>87933</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.08124429416129117</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.06276098124069487</v>
+        <v>0.06304304747853269</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.1028851124080368</v>
+        <v>0.102881704996834</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>20</v>
@@ -5612,19 +5612,19 @@
         <v>21987</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>13212</v>
+        <v>13650</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>33957</v>
+        <v>32328</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.0313572782923207</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.01884247669223131</v>
+        <v>0.01946665475615035</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.04842848045819736</v>
+        <v>0.04610522018203176</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>84</v>
@@ -5633,19 +5633,19 @@
         <v>91427</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>74117</v>
+        <v>73919</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>111835</v>
+        <v>112078</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.05876184832006764</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.04763619654116554</v>
+        <v>0.04750894120963297</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.07187889404731436</v>
+        <v>0.07203451954988974</v>
       </c>
     </row>
     <row r="30">
@@ -5662,19 +5662,19 @@
         <v>9869</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>4978</v>
+        <v>4860</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>18650</v>
+        <v>18190</v>
       </c>
       <c r="G30" s="6" t="n">
         <v>0.01154629782382247</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>0.005824323419361227</v>
+        <v>0.005686201983939392</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.02182101801715241</v>
+        <v>0.02128250935624402</v>
       </c>
       <c r="J30" s="5" t="n">
         <v>3</v>
@@ -5683,19 +5683,19 @@
         <v>3254</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>1039</v>
+        <v>1042</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>8785</v>
+        <v>10307</v>
       </c>
       <c r="N30" s="6" t="n">
         <v>0.00464044611664893</v>
       </c>
       <c r="O30" s="6" t="n">
-        <v>0.001481803695209446</v>
+        <v>0.001486465375388831</v>
       </c>
       <c r="P30" s="6" t="n">
-        <v>0.01252890711829228</v>
+        <v>0.01469889415865287</v>
       </c>
       <c r="Q30" s="5" t="n">
         <v>13</v>
@@ -5704,19 +5704,19 @@
         <v>13122</v>
       </c>
       <c r="S30" s="5" t="n">
-        <v>7476</v>
+        <v>7146</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>21918</v>
+        <v>21665</v>
       </c>
       <c r="U30" s="6" t="n">
         <v>0.008434056406098756</v>
       </c>
       <c r="V30" s="6" t="n">
-        <v>0.0048052032390119</v>
+        <v>0.004592627950336384</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.01408709995594822</v>
+        <v>0.01392444349046394</v>
       </c>
     </row>
     <row r="31">
@@ -5733,19 +5733,19 @@
         <v>13115</v>
       </c>
       <c r="E31" s="5" t="n">
-        <v>7077</v>
+        <v>6788</v>
       </c>
       <c r="F31" s="5" t="n">
-        <v>23427</v>
+        <v>24192</v>
       </c>
       <c r="G31" s="6" t="n">
         <v>0.015344745855546</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>0.008279597713491718</v>
+        <v>0.007941608546015031</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>0.02740995162254551</v>
+        <v>0.02830468770632177</v>
       </c>
       <c r="J31" s="5" t="n">
         <v>2</v>
@@ -5757,7 +5757,7 @@
         <v>0</v>
       </c>
       <c r="M31" s="5" t="n">
-        <v>6065</v>
+        <v>6887</v>
       </c>
       <c r="N31" s="6" t="n">
         <v>0.002842484305529943</v>
@@ -5766,7 +5766,7 @@
         <v>0</v>
       </c>
       <c r="P31" s="6" t="n">
-        <v>0.008648957479323042</v>
+        <v>0.009822086941817141</v>
       </c>
       <c r="Q31" s="5" t="n">
         <v>14</v>
@@ -5775,19 +5775,19 @@
         <v>15108</v>
       </c>
       <c r="S31" s="5" t="n">
-        <v>7959</v>
+        <v>8244</v>
       </c>
       <c r="T31" s="5" t="n">
-        <v>23780</v>
+        <v>25219</v>
       </c>
       <c r="U31" s="6" t="n">
         <v>0.00971038562583583</v>
       </c>
       <c r="V31" s="6" t="n">
-        <v>0.005115678540238426</v>
+        <v>0.0052985564280501</v>
       </c>
       <c r="W31" s="6" t="n">
-        <v>0.01528396619052047</v>
+        <v>0.01620865093543811</v>
       </c>
     </row>
     <row r="32">
@@ -5804,19 +5804,19 @@
         <v>25125</v>
       </c>
       <c r="E32" s="5" t="n">
-        <v>16503</v>
+        <v>16365</v>
       </c>
       <c r="F32" s="5" t="n">
-        <v>37291</v>
+        <v>36504</v>
       </c>
       <c r="G32" s="6" t="n">
         <v>0.02939686393495722</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.01930871324117324</v>
+        <v>0.0191471590553073</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.04363040892116597</v>
+        <v>0.04270945362446642</v>
       </c>
       <c r="J32" s="5" t="n">
         <v>14</v>
@@ -5825,19 +5825,19 @@
         <v>13891</v>
       </c>
       <c r="L32" s="5" t="n">
-        <v>7912</v>
+        <v>7805</v>
       </c>
       <c r="M32" s="5" t="n">
-        <v>22255</v>
+        <v>22639</v>
       </c>
       <c r="N32" s="6" t="n">
         <v>0.0198104080660981</v>
       </c>
       <c r="O32" s="6" t="n">
-        <v>0.01128360523155029</v>
+        <v>0.01113077760685573</v>
       </c>
       <c r="P32" s="6" t="n">
-        <v>0.03173936190631423</v>
+        <v>0.03228630499192764</v>
       </c>
       <c r="Q32" s="5" t="n">
         <v>39</v>
@@ -5846,19 +5846,19 @@
         <v>39016</v>
       </c>
       <c r="S32" s="5" t="n">
-        <v>28376</v>
+        <v>28353</v>
       </c>
       <c r="T32" s="5" t="n">
-        <v>52273</v>
+        <v>53132</v>
       </c>
       <c r="U32" s="6" t="n">
         <v>0.02507656192597373</v>
       </c>
       <c r="V32" s="6" t="n">
-        <v>0.01823769584953551</v>
+        <v>0.01822307760359521</v>
       </c>
       <c r="W32" s="6" t="n">
-        <v>0.03359695774961954</v>
+        <v>0.03414925471643871</v>
       </c>
     </row>
     <row r="33">
@@ -5875,19 +5875,19 @@
         <v>9865</v>
       </c>
       <c r="E33" s="5" t="n">
-        <v>5055</v>
+        <v>4986</v>
       </c>
       <c r="F33" s="5" t="n">
-        <v>17765</v>
+        <v>17920</v>
       </c>
       <c r="G33" s="6" t="n">
         <v>0.01154213019222923</v>
       </c>
       <c r="H33" s="6" t="n">
-        <v>0.005914213220952183</v>
+        <v>0.005833188439599049</v>
       </c>
       <c r="I33" s="6" t="n">
-        <v>0.02078465795998528</v>
+        <v>0.02096687989288839</v>
       </c>
       <c r="J33" s="5" t="n">
         <v>4</v>
@@ -5896,19 +5896,19 @@
         <v>4798</v>
       </c>
       <c r="L33" s="5" t="n">
-        <v>1063</v>
+        <v>1480</v>
       </c>
       <c r="M33" s="5" t="n">
-        <v>11159</v>
+        <v>11731</v>
       </c>
       <c r="N33" s="6" t="n">
         <v>0.006842196672920594</v>
       </c>
       <c r="O33" s="6" t="n">
-        <v>0.001516305047103695</v>
+        <v>0.002111129043743783</v>
       </c>
       <c r="P33" s="6" t="n">
-        <v>0.01591402231982439</v>
+        <v>0.01673057811525754</v>
       </c>
       <c r="Q33" s="5" t="n">
         <v>14</v>
@@ -5917,19 +5917,19 @@
         <v>14663</v>
       </c>
       <c r="S33" s="5" t="n">
-        <v>8370</v>
+        <v>7957</v>
       </c>
       <c r="T33" s="5" t="n">
-        <v>24859</v>
+        <v>23772</v>
       </c>
       <c r="U33" s="6" t="n">
         <v>0.009424023928211714</v>
       </c>
       <c r="V33" s="6" t="n">
-        <v>0.005379673848301902</v>
+        <v>0.00511400092903984</v>
       </c>
       <c r="W33" s="6" t="n">
-        <v>0.01597708559966908</v>
+        <v>0.01527895940267382</v>
       </c>
     </row>
     <row r="34">
@@ -5946,19 +5946,19 @@
         <v>84346</v>
       </c>
       <c r="E34" s="5" t="n">
-        <v>68137</v>
+        <v>68860</v>
       </c>
       <c r="F34" s="5" t="n">
-        <v>103287</v>
+        <v>103327</v>
       </c>
       <c r="G34" s="6" t="n">
         <v>0.09868490860317004</v>
       </c>
       <c r="H34" s="6" t="n">
-        <v>0.07972015449639913</v>
+        <v>0.08056622325009859</v>
       </c>
       <c r="I34" s="6" t="n">
-        <v>0.1208461580419417</v>
+        <v>0.1208924246727631</v>
       </c>
       <c r="J34" s="5" t="n">
         <v>55</v>
@@ -5967,19 +5967,19 @@
         <v>58149</v>
       </c>
       <c r="L34" s="5" t="n">
-        <v>44576</v>
+        <v>44579</v>
       </c>
       <c r="M34" s="5" t="n">
-        <v>74340</v>
+        <v>72866</v>
       </c>
       <c r="N34" s="6" t="n">
         <v>0.08292923345150312</v>
       </c>
       <c r="O34" s="6" t="n">
-        <v>0.06357258560196642</v>
+        <v>0.06357624632874861</v>
       </c>
       <c r="P34" s="6" t="n">
-        <v>0.1060198304401094</v>
+        <v>0.1039184633003456</v>
       </c>
       <c r="Q34" s="5" t="n">
         <v>137</v>
@@ -5988,19 +5988,19 @@
         <v>142495</v>
       </c>
       <c r="S34" s="5" t="n">
-        <v>120759</v>
+        <v>122354</v>
       </c>
       <c r="T34" s="5" t="n">
-        <v>170000</v>
+        <v>169959</v>
       </c>
       <c r="U34" s="6" t="n">
         <v>0.09158434130887352</v>
       </c>
       <c r="V34" s="6" t="n">
-        <v>0.07761421571706714</v>
+        <v>0.07863947156741066</v>
       </c>
       <c r="W34" s="6" t="n">
-        <v>0.1092624829306422</v>
+        <v>0.1092361836832964</v>
       </c>
     </row>
     <row r="35">
@@ -6092,19 +6092,19 @@
         <v>2384335</v>
       </c>
       <c r="E36" s="5" t="n">
-        <v>2330400</v>
+        <v>2335794</v>
       </c>
       <c r="F36" s="5" t="n">
-        <v>2434722</v>
+        <v>2437064</v>
       </c>
       <c r="G36" s="6" t="n">
         <v>0.7595574941405796</v>
       </c>
       <c r="H36" s="6" t="n">
-        <v>0.7423756937182725</v>
+        <v>0.7440941230569112</v>
       </c>
       <c r="I36" s="6" t="n">
-        <v>0.7756086418188144</v>
+        <v>0.7763547639500115</v>
       </c>
       <c r="J36" s="5" t="n">
         <v>1908</v>
@@ -6113,19 +6113,19 @@
         <v>2069482</v>
       </c>
       <c r="L36" s="5" t="n">
-        <v>2031443</v>
+        <v>2032122</v>
       </c>
       <c r="M36" s="5" t="n">
-        <v>2104607</v>
+        <v>2107446</v>
       </c>
       <c r="N36" s="6" t="n">
         <v>0.8514438849653042</v>
       </c>
       <c r="O36" s="6" t="n">
-        <v>0.8357936429802487</v>
+        <v>0.8360729184239053</v>
       </c>
       <c r="P36" s="6" t="n">
-        <v>0.8658952681067432</v>
+        <v>0.8670633701943196</v>
       </c>
       <c r="Q36" s="5" t="n">
         <v>4130</v>
@@ -6134,19 +6134,19 @@
         <v>4453817</v>
       </c>
       <c r="S36" s="5" t="n">
-        <v>4390324</v>
+        <v>4388213</v>
       </c>
       <c r="T36" s="5" t="n">
-        <v>4518293</v>
+        <v>4511620</v>
       </c>
       <c r="U36" s="6" t="n">
         <v>0.7996559485846724</v>
       </c>
       <c r="V36" s="6" t="n">
-        <v>0.7882561575086976</v>
+        <v>0.787877128617906</v>
       </c>
       <c r="W36" s="6" t="n">
-        <v>0.8112321420622099</v>
+        <v>0.810034049692967</v>
       </c>
     </row>
     <row r="37">
@@ -6163,19 +6163,19 @@
         <v>172360</v>
       </c>
       <c r="E37" s="5" t="n">
-        <v>145488</v>
+        <v>146471</v>
       </c>
       <c r="F37" s="5" t="n">
-        <v>201291</v>
+        <v>201351</v>
       </c>
       <c r="G37" s="6" t="n">
         <v>0.05490720067943926</v>
       </c>
       <c r="H37" s="6" t="n">
-        <v>0.0463468141525251</v>
+        <v>0.04666010882867554</v>
       </c>
       <c r="I37" s="6" t="n">
-        <v>0.06412341158613455</v>
+        <v>0.06414267368015426</v>
       </c>
       <c r="J37" s="5" t="n">
         <v>44</v>
@@ -6184,19 +6184,19 @@
         <v>48438</v>
       </c>
       <c r="L37" s="5" t="n">
-        <v>36163</v>
+        <v>34819</v>
       </c>
       <c r="M37" s="5" t="n">
-        <v>64951</v>
+        <v>62722</v>
       </c>
       <c r="N37" s="6" t="n">
         <v>0.01992879981700579</v>
       </c>
       <c r="O37" s="6" t="n">
-        <v>0.01487849228803439</v>
+        <v>0.01432570833251245</v>
       </c>
       <c r="P37" s="6" t="n">
-        <v>0.02672277142857791</v>
+        <v>0.02580581643837827</v>
       </c>
       <c r="Q37" s="5" t="n">
         <v>199</v>
@@ -6205,19 +6205,19 @@
         <v>220798</v>
       </c>
       <c r="S37" s="5" t="n">
-        <v>191041</v>
+        <v>189929</v>
       </c>
       <c r="T37" s="5" t="n">
-        <v>254124</v>
+        <v>253527</v>
       </c>
       <c r="U37" s="6" t="n">
         <v>0.03964291833119733</v>
       </c>
       <c r="V37" s="6" t="n">
-        <v>0.03430020656479962</v>
+        <v>0.03410069008687239</v>
       </c>
       <c r="W37" s="6" t="n">
-        <v>0.04562649127206215</v>
+        <v>0.04551920564360373</v>
       </c>
     </row>
     <row r="38">
@@ -6234,19 +6234,19 @@
         <v>27197</v>
       </c>
       <c r="E38" s="5" t="n">
-        <v>17524</v>
+        <v>16746</v>
       </c>
       <c r="F38" s="5" t="n">
-        <v>41261</v>
+        <v>39355</v>
       </c>
       <c r="G38" s="6" t="n">
         <v>0.008663789624659099</v>
       </c>
       <c r="H38" s="6" t="n">
-        <v>0.005582466478654536</v>
+        <v>0.005334787635448866</v>
       </c>
       <c r="I38" s="6" t="n">
-        <v>0.01314421913941795</v>
+        <v>0.01253697559861444</v>
       </c>
       <c r="J38" s="5" t="n">
         <v>12</v>
@@ -6255,19 +6255,19 @@
         <v>13535</v>
       </c>
       <c r="L38" s="5" t="n">
-        <v>7375</v>
+        <v>7402</v>
       </c>
       <c r="M38" s="5" t="n">
-        <v>22554</v>
+        <v>23120</v>
       </c>
       <c r="N38" s="6" t="n">
         <v>0.00556849040826021</v>
       </c>
       <c r="O38" s="6" t="n">
-        <v>0.00303427316949183</v>
+        <v>0.003045331363849154</v>
       </c>
       <c r="P38" s="6" t="n">
-        <v>0.009279560222924692</v>
+        <v>0.009512182729632291</v>
       </c>
       <c r="Q38" s="5" t="n">
         <v>36</v>
@@ -6276,19 +6276,19 @@
         <v>40731</v>
       </c>
       <c r="S38" s="5" t="n">
-        <v>27727</v>
+        <v>28867</v>
       </c>
       <c r="T38" s="5" t="n">
-        <v>55343</v>
+        <v>57401</v>
       </c>
       <c r="U38" s="6" t="n">
         <v>0.007313026867458609</v>
       </c>
       <c r="V38" s="6" t="n">
-        <v>0.004978150663373443</v>
+        <v>0.00518280724511736</v>
       </c>
       <c r="W38" s="6" t="n">
-        <v>0.009936513941830925</v>
+        <v>0.01030593796236177</v>
       </c>
     </row>
     <row r="39">
@@ -6305,19 +6305,19 @@
         <v>26354</v>
       </c>
       <c r="E39" s="5" t="n">
-        <v>17160</v>
+        <v>16638</v>
       </c>
       <c r="F39" s="5" t="n">
-        <v>40239</v>
+        <v>41233</v>
       </c>
       <c r="G39" s="6" t="n">
         <v>0.008395249749778191</v>
       </c>
       <c r="H39" s="6" t="n">
-        <v>0.00546638830279172</v>
+        <v>0.005300333014930389</v>
       </c>
       <c r="I39" s="6" t="n">
-        <v>0.01281862820782784</v>
+        <v>0.01313534152478432</v>
       </c>
       <c r="J39" s="5" t="n">
         <v>5</v>
@@ -6326,19 +6326,19 @@
         <v>5287</v>
       </c>
       <c r="L39" s="5" t="n">
-        <v>1998</v>
+        <v>2035</v>
       </c>
       <c r="M39" s="5" t="n">
-        <v>12135</v>
+        <v>12296</v>
       </c>
       <c r="N39" s="6" t="n">
         <v>0.002175294551143226</v>
       </c>
       <c r="O39" s="6" t="n">
-        <v>0.000822112777623611</v>
+        <v>0.0008374614548321785</v>
       </c>
       <c r="P39" s="6" t="n">
-        <v>0.004992484870407194</v>
+        <v>0.005059048160875726</v>
       </c>
       <c r="Q39" s="5" t="n">
         <v>28</v>
@@ -6347,19 +6347,19 @@
         <v>31641</v>
       </c>
       <c r="S39" s="5" t="n">
-        <v>21061</v>
+        <v>21581</v>
       </c>
       <c r="T39" s="5" t="n">
-        <v>44492</v>
+        <v>45617</v>
       </c>
       <c r="U39" s="6" t="n">
         <v>0.00568091318765858</v>
       </c>
       <c r="V39" s="6" t="n">
-        <v>0.003781325278550689</v>
+        <v>0.003874823773889634</v>
       </c>
       <c r="W39" s="6" t="n">
-        <v>0.007988347241035356</v>
+        <v>0.008190313782055625</v>
       </c>
     </row>
     <row r="40">
@@ -6376,19 +6376,19 @@
         <v>103304</v>
       </c>
       <c r="E40" s="5" t="n">
-        <v>85101</v>
+        <v>84161</v>
       </c>
       <c r="F40" s="5" t="n">
-        <v>125446</v>
+        <v>126820</v>
       </c>
       <c r="G40" s="6" t="n">
         <v>0.03290871660944601</v>
       </c>
       <c r="H40" s="6" t="n">
-        <v>0.02710979571945215</v>
+        <v>0.02681045038104729</v>
       </c>
       <c r="I40" s="6" t="n">
-        <v>0.03996213185089129</v>
+        <v>0.04039993280195823</v>
       </c>
       <c r="J40" s="5" t="n">
         <v>39</v>
@@ -6397,19 +6397,19 @@
         <v>41374</v>
       </c>
       <c r="L40" s="5" t="n">
-        <v>29366</v>
+        <v>29030</v>
       </c>
       <c r="M40" s="5" t="n">
-        <v>56874</v>
+        <v>56725</v>
       </c>
       <c r="N40" s="6" t="n">
         <v>0.01702252073904785</v>
       </c>
       <c r="O40" s="6" t="n">
-        <v>0.01208203121890222</v>
+        <v>0.01194380012459672</v>
       </c>
       <c r="P40" s="6" t="n">
-        <v>0.02339959985318709</v>
+        <v>0.02333820005876745</v>
       </c>
       <c r="Q40" s="5" t="n">
         <v>138</v>
@@ -6418,19 +6418,19 @@
         <v>144678</v>
       </c>
       <c r="S40" s="5" t="n">
-        <v>122687</v>
+        <v>121690</v>
       </c>
       <c r="T40" s="5" t="n">
-        <v>172278</v>
+        <v>170524</v>
       </c>
       <c r="U40" s="6" t="n">
         <v>0.02597611325347995</v>
       </c>
       <c r="V40" s="6" t="n">
-        <v>0.02202777558235411</v>
+        <v>0.02184873000748449</v>
       </c>
       <c r="W40" s="6" t="n">
-        <v>0.03093144211885759</v>
+        <v>0.03061657663239284</v>
       </c>
     </row>
     <row r="41">
@@ -6447,19 +6447,19 @@
         <v>39738</v>
       </c>
       <c r="E41" s="5" t="n">
-        <v>28055</v>
+        <v>27383</v>
       </c>
       <c r="F41" s="5" t="n">
-        <v>56828</v>
+        <v>54874</v>
       </c>
       <c r="G41" s="6" t="n">
         <v>0.01265913598929995</v>
       </c>
       <c r="H41" s="6" t="n">
-        <v>0.00893709051730425</v>
+        <v>0.008723111334664243</v>
       </c>
       <c r="I41" s="6" t="n">
-        <v>0.01810311694938619</v>
+        <v>0.01748074173756433</v>
       </c>
       <c r="J41" s="5" t="n">
         <v>16</v>
@@ -6468,19 +6468,19 @@
         <v>18212</v>
       </c>
       <c r="L41" s="5" t="n">
-        <v>10651</v>
+        <v>11116</v>
       </c>
       <c r="M41" s="5" t="n">
-        <v>28745</v>
+        <v>28596</v>
       </c>
       <c r="N41" s="6" t="n">
         <v>0.00749281885444213</v>
       </c>
       <c r="O41" s="6" t="n">
-        <v>0.00438198457551916</v>
+        <v>0.004573589494194594</v>
       </c>
       <c r="P41" s="6" t="n">
-        <v>0.01182654480317518</v>
+        <v>0.01176525702070009</v>
       </c>
       <c r="Q41" s="5" t="n">
         <v>52</v>
@@ -6489,19 +6489,19 @@
         <v>57950</v>
       </c>
       <c r="S41" s="5" t="n">
-        <v>43166</v>
+        <v>42851</v>
       </c>
       <c r="T41" s="5" t="n">
-        <v>76468</v>
+        <v>76332</v>
       </c>
       <c r="U41" s="6" t="n">
         <v>0.01040459828881504</v>
       </c>
       <c r="V41" s="6" t="n">
-        <v>0.007750168700734605</v>
+        <v>0.007693626660575748</v>
       </c>
       <c r="W41" s="6" t="n">
-        <v>0.01372934971655475</v>
+        <v>0.01370488802612608</v>
       </c>
     </row>
     <row r="42">
@@ -6518,19 +6518,19 @@
         <v>385823</v>
       </c>
       <c r="E42" s="5" t="n">
-        <v>348167</v>
+        <v>347395</v>
       </c>
       <c r="F42" s="5" t="n">
-        <v>424617</v>
+        <v>427361</v>
       </c>
       <c r="G42" s="6" t="n">
         <v>0.1229084132067979</v>
       </c>
       <c r="H42" s="6" t="n">
-        <v>0.1109126051472366</v>
+        <v>0.1106668336598537</v>
       </c>
       <c r="I42" s="6" t="n">
-        <v>0.1352665666207318</v>
+        <v>0.1361406713911295</v>
       </c>
       <c r="J42" s="5" t="n">
         <v>213</v>
@@ -6539,19 +6539,19 @@
         <v>234228</v>
       </c>
       <c r="L42" s="5" t="n">
-        <v>203351</v>
+        <v>205601</v>
       </c>
       <c r="M42" s="5" t="n">
-        <v>263260</v>
+        <v>266047</v>
       </c>
       <c r="N42" s="6" t="n">
         <v>0.09636819066479656</v>
       </c>
       <c r="O42" s="6" t="n">
-        <v>0.08366427251576343</v>
+        <v>0.08459002010934596</v>
       </c>
       <c r="P42" s="6" t="n">
-        <v>0.108312600667445</v>
+        <v>0.1094592460809532</v>
       </c>
       <c r="Q42" s="5" t="n">
         <v>579</v>
@@ -6560,19 +6560,19 @@
         <v>620051</v>
       </c>
       <c r="S42" s="5" t="n">
-        <v>571423</v>
+        <v>574622</v>
       </c>
       <c r="T42" s="5" t="n">
-        <v>665181</v>
+        <v>668556</v>
       </c>
       <c r="U42" s="6" t="n">
         <v>0.1113264814867181</v>
       </c>
       <c r="V42" s="6" t="n">
-        <v>0.1025956221776108</v>
+        <v>0.1031698228088918</v>
       </c>
       <c r="W42" s="6" t="n">
-        <v>0.1194291638675578</v>
+        <v>0.1200351744253456</v>
       </c>
     </row>
     <row r="43">
@@ -6904,19 +6904,19 @@
         <v>458807</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>437243</v>
+        <v>433903</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>481125</v>
+        <v>479177</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.7421421174720669</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.7072603975403787</v>
+        <v>0.7018584847424421</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.778241628404139</v>
+        <v>0.7750914520237535</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>395</v>
@@ -6925,19 +6925,19 @@
         <v>392642</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>375736</v>
+        <v>377212</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>407109</v>
+        <v>406116</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.8603486459563967</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.8233062949521703</v>
+        <v>0.8265393349889876</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.8920485862022386</v>
+        <v>0.8898728400969759</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>842</v>
@@ -6946,19 +6946,19 @@
         <v>851449</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>825019</v>
+        <v>823823</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>877469</v>
+        <v>875378</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.7923438583657693</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.7677486401062492</v>
+        <v>0.7666357538084879</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.8165581491810671</v>
+        <v>0.814612043355846</v>
       </c>
     </row>
     <row r="5">
@@ -6975,19 +6975,19 @@
         <v>23810</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>15574</v>
+        <v>15325</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>36054</v>
+        <v>34820</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.03851453357420222</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.02519231293578001</v>
+        <v>0.02478914549488892</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.05831879066088595</v>
+        <v>0.056323689995837</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>10</v>
@@ -6996,19 +6996,19 @@
         <v>11521</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>5121</v>
+        <v>5852</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>20026</v>
+        <v>21237</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.02524484534103621</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.01122095109417595</v>
+        <v>0.01282214521994094</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.04388128942199603</v>
+        <v>0.04653396304958141</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>32</v>
@@ -7017,19 +7017,19 @@
         <v>35332</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>23966</v>
+        <v>24629</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>47929</v>
+        <v>48096</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.03287896116578046</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.02230234235474006</v>
+        <v>0.02291973937430687</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.04460179006434961</v>
+        <v>0.04475722915370047</v>
       </c>
     </row>
     <row r="6">
@@ -7046,19 +7046,19 @@
         <v>4207</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>1113</v>
+        <v>1073</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>10822</v>
+        <v>9576</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.006805358407947763</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.001800233626235166</v>
+        <v>0.00173639744067607</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.01750516265919166</v>
+        <v>0.01548908887249913</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>1</v>
@@ -7070,7 +7070,7 @@
         <v>0</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>4692</v>
+        <v>4626</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.001823383982978616</v>
@@ -7079,7 +7079,7 @@
         <v>0</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.01028053863410523</v>
+        <v>0.01013720576140658</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>5</v>
@@ -7088,19 +7088,19 @@
         <v>5039</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>1893</v>
+        <v>1828</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>10434</v>
+        <v>11061</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.004689537966993793</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.001761977020122847</v>
+        <v>0.001701433214959194</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.00970984562791629</v>
+        <v>0.01029342747430066</v>
       </c>
     </row>
     <row r="7">
@@ -7117,19 +7117,19 @@
         <v>4847</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>1020</v>
+        <v>1710</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>11994</v>
+        <v>13073</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.00784099861099103</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.001650314622537295</v>
+        <v>0.002765871535914337</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.01940115540602843</v>
+        <v>0.02114622338128802</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>1</v>
@@ -7141,7 +7141,7 @@
         <v>0</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>4534</v>
+        <v>5189</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.001976917866777827</v>
@@ -7150,7 +7150,7 @@
         <v>0</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.009934619315299317</v>
+        <v>0.01137025011650539</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>5</v>
@@ -7159,19 +7159,19 @@
         <v>5750</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>1904</v>
+        <v>1923</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>13204</v>
+        <v>12905</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.00535055188291741</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.001771545322913798</v>
+        <v>0.001789544816100298</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.0122874873197517</v>
+        <v>0.01200883532621394</v>
       </c>
     </row>
     <row r="8">
@@ -7188,19 +7188,19 @@
         <v>15354</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>9044</v>
+        <v>8777</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>24481</v>
+        <v>25326</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.02483555337188226</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.01462829718553125</v>
+        <v>0.01419706312073911</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.03959866107768991</v>
+        <v>0.04096520438749134</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>4</v>
@@ -7209,19 +7209,19 @@
         <v>4185</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>1433</v>
+        <v>889</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>10991</v>
+        <v>10459</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.009169159941494347</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.00313957415104509</v>
+        <v>0.00194895829366367</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.02408312010111098</v>
+        <v>0.02291825195245998</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>19</v>
@@ -7230,19 +7230,19 @@
         <v>19538</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>12137</v>
+        <v>12514</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>30357</v>
+        <v>29776</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.01818211185883254</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.01129408523710491</v>
+        <v>0.01164494470136038</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.02824946906712374</v>
+        <v>0.02770889242483671</v>
       </c>
     </row>
     <row r="9">
@@ -7259,19 +7259,19 @@
         <v>8452</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>3756</v>
+        <v>3630</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>16750</v>
+        <v>16510</v>
       </c>
       <c r="G9" s="6" t="n">
         <v>0.01367200966263706</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.006075553103464898</v>
+        <v>0.005871456178892853</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.02709338844765857</v>
+        <v>0.02670627382007203</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>3</v>
@@ -7280,19 +7280,19 @@
         <v>2909</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>823</v>
+        <v>825</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>8322</v>
+        <v>8166</v>
       </c>
       <c r="N9" s="6" t="n">
         <v>0.006374632938524802</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>0.0018040946454038</v>
+        <v>0.001806708811293264</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.01823402377937615</v>
+        <v>0.01789262007648653</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>11</v>
@@ -7301,19 +7301,19 @@
         <v>11362</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>6086</v>
+        <v>6000</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>20052</v>
+        <v>20807</v>
       </c>
       <c r="U9" s="6" t="n">
         <v>0.01057284906461491</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.005663100829639675</v>
+        <v>0.005583867878291062</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.01866043764809444</v>
+        <v>0.019362555008497</v>
       </c>
     </row>
     <row r="10">
@@ -7330,19 +7330,19 @@
         <v>102742</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>84904</v>
+        <v>84845</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>124458</v>
+        <v>125701</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.1661894289002727</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.1373368836827566</v>
+        <v>0.13724133447582</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.2013167579528584</v>
+        <v>0.2033277046298147</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>43</v>
@@ -7351,19 +7351,19 @@
         <v>43384</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>32115</v>
+        <v>32803</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>57384</v>
+        <v>57425</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.09506241397279146</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.070370109633658</v>
+        <v>0.07187812826451487</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.125738944100506</v>
+        <v>0.1258289659521622</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>140</v>
@@ -7372,19 +7372,19 @@
         <v>146126</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>122648</v>
+        <v>124640</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>168949</v>
+        <v>170349</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.1359821296950917</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.1141344778664594</v>
+        <v>0.1159876543423754</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.1572213895621846</v>
+        <v>0.1585240298597084</v>
       </c>
     </row>
     <row r="11">
@@ -7476,19 +7476,19 @@
         <v>747968</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>721075</v>
+        <v>722116</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>771243</v>
+        <v>770527</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.8015144121480633</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.7726967462807959</v>
+        <v>0.7738116105187609</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.8264556485383977</v>
+        <v>0.8256889032356768</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>599</v>
@@ -7497,19 +7497,19 @@
         <v>630590</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>609094</v>
+        <v>610571</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>648926</v>
+        <v>649144</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.8637844130291803</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.8343393464862208</v>
+        <v>0.8363624185305673</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.888900755870939</v>
+        <v>0.889199707786906</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>1294</v>
@@ -7518,19 +7518,19 @@
         <v>1378558</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>1348582</v>
+        <v>1345713</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>1410074</v>
+        <v>1407585</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.828846310077696</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.810823684255196</v>
+        <v>0.8090983373054911</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.8477953914500913</v>
+        <v>0.8462986026710182</v>
       </c>
     </row>
     <row r="13">
@@ -7547,19 +7547,19 @@
         <v>28293</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>18023</v>
+        <v>18787</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>41218</v>
+        <v>41024</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.03031853949989024</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.01931310790164469</v>
+        <v>0.02013149929544457</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.04416863032113594</v>
+        <v>0.04396054014563151</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>10</v>
@@ -7568,19 +7568,19 @@
         <v>10697</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>5464</v>
+        <v>5316</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>19206</v>
+        <v>19003</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.01465265281444346</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.007484814892265914</v>
+        <v>0.007282490006990871</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.02630869616129154</v>
+        <v>0.02602976626770733</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>35</v>
@@ -7589,19 +7589,19 @@
         <v>38990</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>27491</v>
+        <v>28185</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>53016</v>
+        <v>55208</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.02344238067854573</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.01652890922755844</v>
+        <v>0.01694619934318839</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.03187535797742511</v>
+        <v>0.03319334497014613</v>
       </c>
     </row>
     <row r="14">
@@ -7618,19 +7618,19 @@
         <v>4312</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>1042</v>
+        <v>1043</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>10776</v>
+        <v>10694</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.004621097025178466</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.001116341031291734</v>
+        <v>0.001117474597551076</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.01154723822032384</v>
+        <v>0.01145966163729794</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>1</v>
@@ -7642,7 +7642,7 @@
         <v>0</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>6270</v>
+        <v>5703</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.001343804964934378</v>
@@ -7651,7 +7651,7 @@
         <v>0</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.008588873461320569</v>
+        <v>0.007811687206219181</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>5</v>
@@ -7660,19 +7660,19 @@
         <v>5293</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>1857</v>
+        <v>1928</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>12064</v>
+        <v>12256</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.003182609618582813</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.001116648351971407</v>
+        <v>0.001159415103465104</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.007253214615710939</v>
+        <v>0.007368648313698896</v>
       </c>
     </row>
     <row r="15">
@@ -7705,7 +7705,7 @@
         <v>0</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>4818</v>
+        <v>6138</v>
       </c>
       <c r="N15" s="6" t="n">
         <v>0.001314568323838924</v>
@@ -7714,7 +7714,7 @@
         <v>0</v>
       </c>
       <c r="P15" s="6" t="n">
-        <v>0.006600312510994483</v>
+        <v>0.008408385625037347</v>
       </c>
       <c r="Q15" s="5" t="n">
         <v>1</v>
@@ -7726,7 +7726,7 @@
         <v>0</v>
       </c>
       <c r="T15" s="5" t="n">
-        <v>4830</v>
+        <v>5480</v>
       </c>
       <c r="U15" s="6" t="n">
         <v>0.0005769976993783735</v>
@@ -7735,7 +7735,7 @@
         <v>0</v>
       </c>
       <c r="W15" s="6" t="n">
-        <v>0.002904125101223934</v>
+        <v>0.00329490213830485</v>
       </c>
     </row>
     <row r="16">
@@ -7752,19 +7752,19 @@
         <v>24907</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>16277</v>
+        <v>16245</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>37475</v>
+        <v>37670</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.02668968585223034</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.01744188359642902</v>
+        <v>0.01740847734016698</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.04015833318700551</v>
+        <v>0.04036685953299926</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>15</v>
@@ -7773,19 +7773,19 @@
         <v>15781</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>8865</v>
+        <v>9274</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>25058</v>
+        <v>26074</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.02161682950202296</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.01214377349688889</v>
+        <v>0.01270344884830974</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.03432505007439469</v>
+        <v>0.03571560112744824</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>38</v>
@@ -7794,19 +7794,19 @@
         <v>40688</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>29137</v>
+        <v>29307</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>55382</v>
+        <v>55767</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.02446307929989926</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.01751807845173069</v>
+        <v>0.01762037305033756</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.03329797336453694</v>
+        <v>0.03352929516856833</v>
       </c>
     </row>
     <row r="17">
@@ -7823,19 +7823,19 @@
         <v>4423</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>1075</v>
+        <v>1077</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>10738</v>
+        <v>11486</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.004739293926252907</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.001151870827994867</v>
+        <v>0.001154433711480592</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.01150642744499009</v>
+        <v>0.01230824168241853</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>3</v>
@@ -7844,19 +7844,19 @@
         <v>3203</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>1032</v>
+        <v>1029</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>8522</v>
+        <v>8560</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.004386903924116727</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.00141421477801045</v>
+        <v>0.001409691767087167</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.01167398655487791</v>
+        <v>0.01172592111286334</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>7</v>
@@ -7865,19 +7865,19 @@
         <v>7625</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>3580</v>
+        <v>3255</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>16091</v>
+        <v>15587</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.004584620930692861</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.002152716670332367</v>
+        <v>0.001957141336609042</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.009674671415963386</v>
+        <v>0.009371635934063732</v>
       </c>
     </row>
     <row r="18">
@@ -7894,19 +7894,19 @@
         <v>123291</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>102757</v>
+        <v>102708</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>142554</v>
+        <v>144430</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.1321169715483847</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.110113184744984</v>
+        <v>0.1100611710341547</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.152759903714609</v>
+        <v>0.1547698139230539</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>61</v>
@@ -7915,19 +7915,19 @@
         <v>67821</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>53953</v>
+        <v>53691</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>86542</v>
+        <v>86834</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.09290082744146326</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.07390456403929846</v>
+        <v>0.07354607966651001</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.1185453960004689</v>
+        <v>0.1189458796103282</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>180</v>
@@ -7936,19 +7936,19 @@
         <v>191111</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>164994</v>
+        <v>164090</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>217436</v>
+        <v>215898</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.114904001695205</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.09920153775691859</v>
+        <v>0.09865743240895877</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.1307313301568497</v>
+        <v>0.1298066408912672</v>
       </c>
     </row>
     <row r="19">
@@ -8040,19 +8040,19 @@
         <v>537694</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>514949</v>
+        <v>510070</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>560239</v>
+        <v>559562</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.7842911037184094</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.7511158842036632</v>
+        <v>0.7439995074807824</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.8171758900354228</v>
+        <v>0.8161890547426297</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>452</v>
@@ -8061,19 +8061,19 @@
         <v>470931</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>452058</v>
+        <v>453046</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>484695</v>
+        <v>484806</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.8798960702094258</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.8446342693627852</v>
+        <v>0.8464803420147377</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.9056122334126262</v>
+        <v>0.9058207702725154</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>948</v>
@@ -8082,19 +8082,19 @@
         <v>1008624</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>978955</v>
+        <v>981945</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>1036079</v>
+        <v>1035527</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.8262056369713285</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.8019019202838643</v>
+        <v>0.8043518136725047</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.8486948519946949</v>
+        <v>0.8482427072841205</v>
       </c>
     </row>
     <row r="21">
@@ -8111,19 +8111,19 @@
         <v>54313</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>40547</v>
+        <v>40690</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>73102</v>
+        <v>73164</v>
       </c>
       <c r="G21" s="6" t="n">
         <v>0.07922278045503356</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.0591422770207861</v>
+        <v>0.05935124670050654</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.1066282342259832</v>
+        <v>0.1067191017182753</v>
       </c>
       <c r="J21" s="5" t="n">
         <v>8</v>
@@ -8132,19 +8132,19 @@
         <v>9934</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>4586</v>
+        <v>4281</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>18666</v>
+        <v>18282</v>
       </c>
       <c r="N21" s="6" t="n">
         <v>0.01856132436547308</v>
       </c>
       <c r="O21" s="6" t="n">
-        <v>0.008569218899456275</v>
+        <v>0.007999324959165558</v>
       </c>
       <c r="P21" s="6" t="n">
-        <v>0.03487590233573627</v>
+        <v>0.03415883701193307</v>
       </c>
       <c r="Q21" s="5" t="n">
         <v>55</v>
@@ -8153,19 +8153,19 @@
         <v>64248</v>
       </c>
       <c r="S21" s="5" t="n">
-        <v>49275</v>
+        <v>49908</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>83780</v>
+        <v>82073</v>
       </c>
       <c r="U21" s="6" t="n">
         <v>0.0526279631379301</v>
       </c>
       <c r="V21" s="6" t="n">
-        <v>0.04036307676486433</v>
+        <v>0.04088136179293687</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.0686277195443807</v>
+        <v>0.06722924354816658</v>
       </c>
     </row>
     <row r="22">
@@ -8185,16 +8185,16 @@
         <v>1019</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>10480</v>
+        <v>10391</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.005319071188282811</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.001486971424652018</v>
+        <v>0.00148698044885066</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.01528648182839308</v>
+        <v>0.01515590569004654</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>4</v>
@@ -8203,19 +8203,19 @@
         <v>4025</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>1157</v>
+        <v>952</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>10438</v>
+        <v>9666</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.007520844493635655</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.002160957606506439</v>
+        <v>0.001778020884555536</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.01950174878831634</v>
+        <v>0.01806083159667661</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>7</v>
@@ -8224,19 +8224,19 @@
         <v>7672</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>3225</v>
+        <v>3036</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>16335</v>
+        <v>15681</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.006284358911397837</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.002641650594007579</v>
+        <v>0.002486864222545115</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.01338043636635412</v>
+        <v>0.01284523391977159</v>
       </c>
     </row>
     <row r="23">
@@ -8253,19 +8253,19 @@
         <v>9361</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>3996</v>
+        <v>3928</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>19727</v>
+        <v>19000</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.01365348003927909</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.005828136620244042</v>
+        <v>0.005730181414891315</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.02877348999084273</v>
+        <v>0.02771324981394159</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>2</v>
@@ -8277,7 +8277,7 @@
         <v>0</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>9384</v>
+        <v>9347</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.004908741444655034</v>
@@ -8286,7 +8286,7 @@
         <v>0</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.01753356021092988</v>
+        <v>0.01746389604858964</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>9</v>
@@ -8295,19 +8295,19 @@
         <v>11988</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>5491</v>
+        <v>5476</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>21575</v>
+        <v>22986</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.00981966627347544</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.004497904821002595</v>
+        <v>0.004485414122132785</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.01767334770346801</v>
+        <v>0.01882910460666745</v>
       </c>
     </row>
     <row r="24">
@@ -8324,19 +8324,19 @@
         <v>13480</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>7172</v>
+        <v>7374</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>21765</v>
+        <v>23148</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.01966268496274112</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.01046194598097536</v>
+        <v>0.01075656691005005</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.0317475256384621</v>
+        <v>0.03376432230884347</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>4</v>
@@ -8345,19 +8345,19 @@
         <v>4829</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>1553</v>
+        <v>1236</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>12215</v>
+        <v>12044</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.00902346346133772</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.002902060970455885</v>
+        <v>0.002309646404627066</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.0228222035225148</v>
+        <v>0.02250282808176514</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>17</v>
@@ -8366,19 +8366,19 @@
         <v>18310</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>10614</v>
+        <v>10621</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>28495</v>
+        <v>28743</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.01499830381421942</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.008694497079676932</v>
+        <v>0.008700081775039177</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.0233416679222479</v>
+        <v>0.02354452544549284</v>
       </c>
     </row>
     <row r="25">
@@ -8398,7 +8398,7 @@
         <v>0</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>10342</v>
+        <v>10079</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.004306582470581497</v>
@@ -8407,7 +8407,7 @@
         <v>0</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.0150850001839655</v>
+        <v>0.01470185849969462</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>1</v>
@@ -8419,7 +8419,7 @@
         <v>0</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>8503</v>
+        <v>8441</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.003173004580652754</v>
@@ -8428,7 +8428,7 @@
         <v>0</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.01588645798703499</v>
+        <v>0.01577169229215606</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>3</v>
@@ -8437,19 +8437,19 @@
         <v>4651</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>1164</v>
+        <v>1169</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>12049</v>
+        <v>12222</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.003809606320637897</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.0009538886449082393</v>
+        <v>0.0009576518764497108</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.009869702591715818</v>
+        <v>0.01001180750184045</v>
       </c>
     </row>
     <row r="26">
@@ -8466,19 +8466,19 @@
         <v>64132</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>50737</v>
+        <v>49692</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>82277</v>
+        <v>81819</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.09354429716567257</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.07400669030971377</v>
+        <v>0.07248185147100114</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.1200114307484481</v>
+        <v>0.119342252319065</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>40</v>
@@ -8487,19 +8487,19 @@
         <v>41167</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>30402</v>
+        <v>29834</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>56449</v>
+        <v>54402</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.07691655144481989</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.0568042726902078</v>
+        <v>0.05574300061541732</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.1054708844202641</v>
+        <v>0.1016464551350797</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>101</v>
@@ -8508,19 +8508,19 @@
         <v>105299</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>85583</v>
+        <v>86604</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>127519</v>
+        <v>125160</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.08625446457101073</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.07010431027727644</v>
+        <v>0.07094102963160484</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.104455718530203</v>
+        <v>0.1025237005585058</v>
       </c>
     </row>
     <row r="27">
@@ -8612,19 +8612,19 @@
         <v>644759</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>618721</v>
+        <v>618802</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>668583</v>
+        <v>669014</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.7685983646518215</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.7375586627472248</v>
+        <v>0.7376549460922156</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.796997438103444</v>
+        <v>0.7975109522383849</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>562</v>
@@ -8633,19 +8633,19 @@
         <v>606103</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>587200</v>
+        <v>586643</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>624062</v>
+        <v>623458</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.8700294976680443</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.8428962621856891</v>
+        <v>0.8420966050683275</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.8958089843496002</v>
+        <v>0.8949423290801293</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>1202</v>
@@ -8654,19 +8654,19 @@
         <v>1250862</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>1221448</v>
+        <v>1217476</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>1281073</v>
+        <v>1279205</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.8146163111718707</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.7954607877198545</v>
+        <v>0.7928740388296006</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.8342912841538689</v>
+        <v>0.8330746217932554</v>
       </c>
     </row>
     <row r="29">
@@ -8683,19 +8683,19 @@
         <v>47784</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>36165</v>
+        <v>35178</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>63548</v>
+        <v>63641</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.05696242107917153</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.04311154221516081</v>
+        <v>0.0419342273661942</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.07575388398416569</v>
+        <v>0.07586477010208666</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>15</v>
@@ -8704,19 +8704,19 @@
         <v>15145</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>8891</v>
+        <v>8949</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>24169</v>
+        <v>23971</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.02173946242466361</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.01276214144139071</v>
+        <v>0.01284638044904205</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.03469284066478205</v>
+        <v>0.03440855818948127</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>62</v>
@@ -8725,19 +8725,19 @@
         <v>62929</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>49108</v>
+        <v>50012</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>79819</v>
+        <v>80917</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.04098223650032229</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.03198154338697282</v>
+        <v>0.03257010217975057</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.05198182099459334</v>
+        <v>0.05269644474327542</v>
       </c>
     </row>
     <row r="30">
@@ -8754,19 +8754,19 @@
         <v>7880</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>3629</v>
+        <v>3820</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>15047</v>
+        <v>14416</v>
       </c>
       <c r="G30" s="6" t="n">
         <v>0.009393013713797541</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>0.004326416786567295</v>
+        <v>0.004553515701124935</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.01793649041511025</v>
+        <v>0.01718491353908021</v>
       </c>
       <c r="J30" s="5" t="n">
         <v>2</v>
@@ -8778,7 +8778,7 @@
         <v>0</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>7872</v>
+        <v>8892</v>
       </c>
       <c r="N30" s="6" t="n">
         <v>0.003665194570156472</v>
@@ -8787,7 +8787,7 @@
         <v>0</v>
       </c>
       <c r="P30" s="6" t="n">
-        <v>0.01130051768479344</v>
+        <v>0.01276341424554675</v>
       </c>
       <c r="Q30" s="5" t="n">
         <v>10</v>
@@ -8796,19 +8796,19 @@
         <v>10433</v>
       </c>
       <c r="S30" s="5" t="n">
-        <v>5216</v>
+        <v>5332</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>19903</v>
+        <v>18842</v>
       </c>
       <c r="U30" s="6" t="n">
         <v>0.006794378884524446</v>
       </c>
       <c r="V30" s="6" t="n">
-        <v>0.003397032108518212</v>
+        <v>0.00347263465848959</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.01296163003817322</v>
+        <v>0.01227041744968423</v>
       </c>
     </row>
     <row r="31">
@@ -8825,19 +8825,19 @@
         <v>7885</v>
       </c>
       <c r="E31" s="5" t="n">
-        <v>3538</v>
+        <v>3570</v>
       </c>
       <c r="F31" s="5" t="n">
-        <v>14855</v>
+        <v>15877</v>
       </c>
       <c r="G31" s="6" t="n">
         <v>0.009399825045670246</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>0.004217514459902985</v>
+        <v>0.004255636417521874</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>0.01770787129797317</v>
+        <v>0.01892614880194155</v>
       </c>
       <c r="J31" s="5" t="n">
         <v>0</v>
@@ -8859,19 +8859,19 @@
         <v>7885</v>
       </c>
       <c r="S31" s="5" t="n">
-        <v>3729</v>
+        <v>3868</v>
       </c>
       <c r="T31" s="5" t="n">
-        <v>15455</v>
+        <v>15857</v>
       </c>
       <c r="U31" s="6" t="n">
         <v>0.005135250320075007</v>
       </c>
       <c r="V31" s="6" t="n">
-        <v>0.00242864604889536</v>
+        <v>0.002518869880766356</v>
       </c>
       <c r="W31" s="6" t="n">
-        <v>0.0100651710993864</v>
+        <v>0.0103268098714113</v>
       </c>
     </row>
     <row r="32">
@@ -8888,19 +8888,19 @@
         <v>17549</v>
       </c>
       <c r="E32" s="5" t="n">
-        <v>10473</v>
+        <v>10729</v>
       </c>
       <c r="F32" s="5" t="n">
-        <v>27698</v>
+        <v>27670</v>
       </c>
       <c r="G32" s="6" t="n">
         <v>0.02091919322191577</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.01248445773128464</v>
+        <v>0.01278980908281391</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.03301795017519736</v>
+        <v>0.03298484864084431</v>
       </c>
       <c r="J32" s="5" t="n">
         <v>11</v>
@@ -8909,19 +8909,19 @@
         <v>12598</v>
       </c>
       <c r="L32" s="5" t="n">
-        <v>6750</v>
+        <v>6295</v>
       </c>
       <c r="M32" s="5" t="n">
-        <v>22651</v>
+        <v>22488</v>
       </c>
       <c r="N32" s="6" t="n">
         <v>0.01808408338588327</v>
       </c>
       <c r="O32" s="6" t="n">
-        <v>0.009688810612537711</v>
+        <v>0.00903682037721085</v>
       </c>
       <c r="P32" s="6" t="n">
-        <v>0.0325138410901155</v>
+        <v>0.03227969073201754</v>
       </c>
       <c r="Q32" s="5" t="n">
         <v>28</v>
@@ -8930,19 +8930,19 @@
         <v>30147</v>
       </c>
       <c r="S32" s="5" t="n">
-        <v>20196</v>
+        <v>19979</v>
       </c>
       <c r="T32" s="5" t="n">
-        <v>44430</v>
+        <v>43741</v>
       </c>
       <c r="U32" s="6" t="n">
         <v>0.01963294186167372</v>
       </c>
       <c r="V32" s="6" t="n">
-        <v>0.01315231657641176</v>
+        <v>0.01301150070430156</v>
       </c>
       <c r="W32" s="6" t="n">
-        <v>0.02893455904665287</v>
+        <v>0.02848597958367253</v>
       </c>
     </row>
     <row r="33">
@@ -8959,19 +8959,19 @@
         <v>16540</v>
       </c>
       <c r="E33" s="5" t="n">
-        <v>9605</v>
+        <v>9358</v>
       </c>
       <c r="F33" s="5" t="n">
-        <v>26777</v>
+        <v>26208</v>
       </c>
       <c r="G33" s="6" t="n">
         <v>0.01971647270696194</v>
       </c>
       <c r="H33" s="6" t="n">
-        <v>0.01144946177552935</v>
+        <v>0.01115541439871586</v>
       </c>
       <c r="I33" s="6" t="n">
-        <v>0.03192043620489884</v>
+        <v>0.03124229501718227</v>
       </c>
       <c r="J33" s="5" t="n">
         <v>6</v>
@@ -8980,19 +8980,19 @@
         <v>6473</v>
       </c>
       <c r="L33" s="5" t="n">
-        <v>2234</v>
+        <v>2267</v>
       </c>
       <c r="M33" s="5" t="n">
-        <v>12918</v>
+        <v>13931</v>
       </c>
       <c r="N33" s="6" t="n">
         <v>0.009291087814187152</v>
       </c>
       <c r="O33" s="6" t="n">
-        <v>0.003206925665952298</v>
+        <v>0.003253737227909541</v>
       </c>
       <c r="P33" s="6" t="n">
-        <v>0.01854345186337112</v>
+        <v>0.01999658071504792</v>
       </c>
       <c r="Q33" s="5" t="n">
         <v>22</v>
@@ -9001,19 +9001,19 @@
         <v>23012</v>
       </c>
       <c r="S33" s="5" t="n">
-        <v>14709</v>
+        <v>15257</v>
       </c>
       <c r="T33" s="5" t="n">
-        <v>34395</v>
+        <v>34807</v>
       </c>
       <c r="U33" s="6" t="n">
         <v>0.01498661521468777</v>
       </c>
       <c r="V33" s="6" t="n">
-        <v>0.009579252260352935</v>
+        <v>0.009935776566465725</v>
       </c>
       <c r="W33" s="6" t="n">
-        <v>0.02239977630281434</v>
+        <v>0.02266810567493072</v>
       </c>
     </row>
     <row r="34">
@@ -9030,19 +9030,19 @@
         <v>96480</v>
       </c>
       <c r="E34" s="5" t="n">
-        <v>79076</v>
+        <v>79307</v>
       </c>
       <c r="F34" s="5" t="n">
-        <v>114860</v>
+        <v>115917</v>
       </c>
       <c r="G34" s="6" t="n">
         <v>0.1150107095806614</v>
       </c>
       <c r="H34" s="6" t="n">
-        <v>0.09426450236139171</v>
+        <v>0.09453932295604063</v>
       </c>
       <c r="I34" s="6" t="n">
-        <v>0.1369211061801828</v>
+        <v>0.1381814944498397</v>
       </c>
       <c r="J34" s="5" t="n">
         <v>50</v>
@@ -9051,19 +9051,19 @@
         <v>53775</v>
       </c>
       <c r="L34" s="5" t="n">
-        <v>39426</v>
+        <v>41004</v>
       </c>
       <c r="M34" s="5" t="n">
-        <v>69876</v>
+        <v>69451</v>
       </c>
       <c r="N34" s="6" t="n">
         <v>0.07719067413706525</v>
       </c>
       <c r="O34" s="6" t="n">
-        <v>0.05659460681329344</v>
+        <v>0.0588594629859431</v>
       </c>
       <c r="P34" s="6" t="n">
-        <v>0.1003041635043236</v>
+        <v>0.0996934951664379</v>
       </c>
       <c r="Q34" s="5" t="n">
         <v>148</v>
@@ -9072,19 +9072,19 @@
         <v>150254</v>
       </c>
       <c r="S34" s="5" t="n">
-        <v>128210</v>
+        <v>129051</v>
       </c>
       <c r="T34" s="5" t="n">
-        <v>174777</v>
+        <v>175037</v>
       </c>
       <c r="U34" s="6" t="n">
         <v>0.09785226604684606</v>
       </c>
       <c r="V34" s="6" t="n">
-        <v>0.08349616827507252</v>
+        <v>0.08404356688494495</v>
       </c>
       <c r="W34" s="6" t="n">
-        <v>0.1138223594259954</v>
+        <v>0.1139918949005319</v>
       </c>
     </row>
     <row r="35">
@@ -9176,19 +9176,19 @@
         <v>2389228</v>
       </c>
       <c r="E36" s="5" t="n">
-        <v>2344516</v>
+        <v>2340831</v>
       </c>
       <c r="F36" s="5" t="n">
-        <v>2433958</v>
+        <v>2432966</v>
       </c>
       <c r="G36" s="6" t="n">
         <v>0.7767651201728152</v>
       </c>
       <c r="H36" s="6" t="n">
-        <v>0.7622289499588796</v>
+        <v>0.7610306473004208</v>
       </c>
       <c r="I36" s="6" t="n">
-        <v>0.7913075649998178</v>
+        <v>0.7909850794036286</v>
       </c>
       <c r="J36" s="5" t="n">
         <v>2008</v>
@@ -9197,19 +9197,19 @@
         <v>2100265</v>
       </c>
       <c r="L36" s="5" t="n">
-        <v>2064720</v>
+        <v>2068175</v>
       </c>
       <c r="M36" s="5" t="n">
-        <v>2133865</v>
+        <v>2133255</v>
       </c>
       <c r="N36" s="6" t="n">
         <v>0.8685009177083359</v>
       </c>
       <c r="O36" s="6" t="n">
-        <v>0.8538023031739463</v>
+        <v>0.8552308018258153</v>
       </c>
       <c r="P36" s="6" t="n">
-        <v>0.8823948474775585</v>
+        <v>0.882142799560405</v>
       </c>
       <c r="Q36" s="5" t="n">
         <v>4286</v>
@@ -9218,19 +9218,19 @@
         <v>4489493</v>
       </c>
       <c r="S36" s="5" t="n">
-        <v>4431412</v>
+        <v>4431344</v>
       </c>
       <c r="T36" s="5" t="n">
-        <v>4551679</v>
+        <v>4548532</v>
       </c>
       <c r="U36" s="6" t="n">
         <v>0.8171429996184013</v>
       </c>
       <c r="V36" s="6" t="n">
-        <v>0.8065714476629721</v>
+        <v>0.8065591060398331</v>
       </c>
       <c r="W36" s="6" t="n">
-        <v>0.8284615126442492</v>
+        <v>0.8278888831507946</v>
       </c>
     </row>
     <row r="37">
@@ -9247,19 +9247,19 @@
         <v>154201</v>
       </c>
       <c r="E37" s="5" t="n">
-        <v>131708</v>
+        <v>130686</v>
       </c>
       <c r="F37" s="5" t="n">
-        <v>182040</v>
+        <v>180328</v>
       </c>
       <c r="G37" s="6" t="n">
         <v>0.05013264591900321</v>
       </c>
       <c r="H37" s="6" t="n">
-        <v>0.04281983542294879</v>
+        <v>0.04248749101037573</v>
       </c>
       <c r="I37" s="6" t="n">
-        <v>0.05918343087054882</v>
+        <v>0.0586265537666476</v>
       </c>
       <c r="J37" s="5" t="n">
         <v>43</v>
@@ -9268,19 +9268,19 @@
         <v>47297</v>
       </c>
       <c r="L37" s="5" t="n">
-        <v>35382</v>
+        <v>34701</v>
       </c>
       <c r="M37" s="5" t="n">
-        <v>64272</v>
+        <v>63347</v>
       </c>
       <c r="N37" s="6" t="n">
         <v>0.01955822748216538</v>
       </c>
       <c r="O37" s="6" t="n">
-        <v>0.01463135706662737</v>
+        <v>0.01434952109006228</v>
       </c>
       <c r="P37" s="6" t="n">
-        <v>0.0265777139660548</v>
+        <v>0.02619542064991231</v>
       </c>
       <c r="Q37" s="5" t="n">
         <v>184</v>
@@ -9289,19 +9289,19 @@
         <v>201498</v>
       </c>
       <c r="S37" s="5" t="n">
-        <v>173670</v>
+        <v>173992</v>
       </c>
       <c r="T37" s="5" t="n">
-        <v>230590</v>
+        <v>232304</v>
       </c>
       <c r="U37" s="6" t="n">
         <v>0.03667519294069856</v>
       </c>
       <c r="V37" s="6" t="n">
-        <v>0.0316101573315471</v>
+        <v>0.03166869453271633</v>
       </c>
       <c r="W37" s="6" t="n">
-        <v>0.0419701381606202</v>
+        <v>0.04228226061669784</v>
       </c>
     </row>
     <row r="38">
@@ -9318,19 +9318,19 @@
         <v>20046</v>
       </c>
       <c r="E38" s="5" t="n">
-        <v>12420</v>
+        <v>12466</v>
       </c>
       <c r="F38" s="5" t="n">
-        <v>31106</v>
+        <v>31992</v>
       </c>
       <c r="G38" s="6" t="n">
         <v>0.006517120499181355</v>
       </c>
       <c r="H38" s="6" t="n">
-        <v>0.004037894118906981</v>
+        <v>0.0040527670985825</v>
       </c>
       <c r="I38" s="6" t="n">
-        <v>0.01011304483320247</v>
+        <v>0.01040086620772903</v>
       </c>
       <c r="J38" s="5" t="n">
         <v>8</v>
@@ -9339,19 +9339,19 @@
         <v>8392</v>
       </c>
       <c r="L38" s="5" t="n">
-        <v>3365</v>
+        <v>3527</v>
       </c>
       <c r="M38" s="5" t="n">
-        <v>15894</v>
+        <v>15752</v>
       </c>
       <c r="N38" s="6" t="n">
         <v>0.003470154854369459</v>
       </c>
       <c r="O38" s="6" t="n">
-        <v>0.001391553386134167</v>
+        <v>0.001458570333569223</v>
       </c>
       <c r="P38" s="6" t="n">
-        <v>0.006572283719801155</v>
+        <v>0.006513734337143212</v>
       </c>
       <c r="Q38" s="5" t="n">
         <v>27</v>
@@ -9360,19 +9360,19 @@
         <v>28438</v>
       </c>
       <c r="S38" s="5" t="n">
-        <v>19632</v>
+        <v>19014</v>
       </c>
       <c r="T38" s="5" t="n">
-        <v>41887</v>
+        <v>40793</v>
       </c>
       <c r="U38" s="6" t="n">
         <v>0.005175986342328143</v>
       </c>
       <c r="V38" s="6" t="n">
-        <v>0.003573210443859274</v>
+        <v>0.003460793707682756</v>
       </c>
       <c r="W38" s="6" t="n">
-        <v>0.007623975089392841</v>
+        <v>0.007424893814494544</v>
       </c>
     </row>
     <row r="39">
@@ -9389,19 +9389,19 @@
         <v>22093</v>
       </c>
       <c r="E39" s="5" t="n">
-        <v>13312</v>
+        <v>13223</v>
       </c>
       <c r="F39" s="5" t="n">
-        <v>35445</v>
+        <v>33707</v>
       </c>
       <c r="G39" s="6" t="n">
         <v>0.007182782870750997</v>
       </c>
       <c r="H39" s="6" t="n">
-        <v>0.004327769487599812</v>
+        <v>0.004299010104793945</v>
       </c>
       <c r="I39" s="6" t="n">
-        <v>0.0115235390156298</v>
+        <v>0.01095854694182253</v>
       </c>
       <c r="J39" s="5" t="n">
         <v>4</v>
@@ -9410,19 +9410,19 @@
         <v>4489</v>
       </c>
       <c r="L39" s="5" t="n">
-        <v>1073</v>
+        <v>974</v>
       </c>
       <c r="M39" s="5" t="n">
-        <v>11008</v>
+        <v>11130</v>
       </c>
       <c r="N39" s="6" t="n">
         <v>0.001856334441744521</v>
       </c>
       <c r="O39" s="6" t="n">
-        <v>0.0004436004652870041</v>
+        <v>0.0004026825748111664</v>
       </c>
       <c r="P39" s="6" t="n">
-        <v>0.004552210214398075</v>
+        <v>0.004602286266790254</v>
       </c>
       <c r="Q39" s="5" t="n">
         <v>23</v>
@@ -9431,19 +9431,19 @@
         <v>26582</v>
       </c>
       <c r="S39" s="5" t="n">
-        <v>17079</v>
+        <v>16823</v>
       </c>
       <c r="T39" s="5" t="n">
-        <v>39283</v>
+        <v>41281</v>
       </c>
       <c r="U39" s="6" t="n">
         <v>0.004838325218259572</v>
       </c>
       <c r="V39" s="6" t="n">
-        <v>0.003108574574115213</v>
+        <v>0.003062022390260422</v>
       </c>
       <c r="W39" s="6" t="n">
-        <v>0.007149999757289693</v>
+        <v>0.007513650746522239</v>
       </c>
     </row>
     <row r="40">
@@ -9460,19 +9460,19 @@
         <v>71289</v>
       </c>
       <c r="E40" s="5" t="n">
-        <v>54633</v>
+        <v>56025</v>
       </c>
       <c r="F40" s="5" t="n">
-        <v>89549</v>
+        <v>89810</v>
       </c>
       <c r="G40" s="6" t="n">
         <v>0.02317700052044617</v>
       </c>
       <c r="H40" s="6" t="n">
-        <v>0.01776192794984786</v>
+        <v>0.0182144209024198</v>
       </c>
       <c r="I40" s="6" t="n">
-        <v>0.02911326298699481</v>
+        <v>0.0291984090357796</v>
       </c>
       <c r="J40" s="5" t="n">
         <v>34</v>
@@ -9481,19 +9481,19 @@
         <v>37393</v>
       </c>
       <c r="L40" s="5" t="n">
-        <v>25724</v>
+        <v>25712</v>
       </c>
       <c r="M40" s="5" t="n">
-        <v>51784</v>
+        <v>52729</v>
       </c>
       <c r="N40" s="6" t="n">
         <v>0.0154628315800147</v>
       </c>
       <c r="O40" s="6" t="n">
-        <v>0.01063752874010845</v>
+        <v>0.01063259347079275</v>
       </c>
       <c r="P40" s="6" t="n">
-        <v>0.0214135416485663</v>
+        <v>0.02180465906824253</v>
       </c>
       <c r="Q40" s="5" t="n">
         <v>102</v>
@@ -9502,19 +9502,19 @@
         <v>108683</v>
       </c>
       <c r="S40" s="5" t="n">
-        <v>88006</v>
+        <v>87359</v>
       </c>
       <c r="T40" s="5" t="n">
-        <v>131739</v>
+        <v>130002</v>
       </c>
       <c r="U40" s="6" t="n">
         <v>0.01978157810228908</v>
       </c>
       <c r="V40" s="6" t="n">
-        <v>0.01601812792549386</v>
+        <v>0.0159003496548079</v>
       </c>
       <c r="W40" s="6" t="n">
-        <v>0.02397803924020324</v>
+        <v>0.02366205430823523</v>
       </c>
     </row>
     <row r="41">
@@ -9531,19 +9531,19 @@
         <v>32367</v>
       </c>
       <c r="E41" s="5" t="n">
-        <v>21520</v>
+        <v>21437</v>
       </c>
       <c r="F41" s="5" t="n">
-        <v>46367</v>
+        <v>45296</v>
       </c>
       <c r="G41" s="6" t="n">
         <v>0.01052293730308621</v>
       </c>
       <c r="H41" s="6" t="n">
-        <v>0.006996299810964971</v>
+        <v>0.006969539246407821</v>
       </c>
       <c r="I41" s="6" t="n">
-        <v>0.01507441033938528</v>
+        <v>0.01472633721338199</v>
       </c>
       <c r="J41" s="5" t="n">
         <v>13</v>
@@ -9552,19 +9552,19 @@
         <v>14283</v>
       </c>
       <c r="L41" s="5" t="n">
-        <v>7531</v>
+        <v>7594</v>
       </c>
       <c r="M41" s="5" t="n">
-        <v>23544</v>
+        <v>23856</v>
       </c>
       <c r="N41" s="6" t="n">
         <v>0.005906149276891911</v>
       </c>
       <c r="O41" s="6" t="n">
-        <v>0.003114157486926059</v>
+        <v>0.003140159809874805</v>
       </c>
       <c r="P41" s="6" t="n">
-        <v>0.009736097184506857</v>
+        <v>0.009864752986364515</v>
       </c>
       <c r="Q41" s="5" t="n">
         <v>43</v>
@@ -9573,19 +9573,19 @@
         <v>46650</v>
       </c>
       <c r="S41" s="5" t="n">
-        <v>34370</v>
+        <v>33146</v>
       </c>
       <c r="T41" s="5" t="n">
-        <v>62340</v>
+        <v>60816</v>
       </c>
       <c r="U41" s="6" t="n">
         <v>0.008490839524949839</v>
       </c>
       <c r="V41" s="6" t="n">
-        <v>0.006255765896529483</v>
+        <v>0.006032947971168648</v>
       </c>
       <c r="W41" s="6" t="n">
-        <v>0.01134673675493396</v>
+        <v>0.01106921014319394</v>
       </c>
     </row>
     <row r="42">
@@ -9602,19 +9602,19 @@
         <v>386644</v>
       </c>
       <c r="E42" s="5" t="n">
-        <v>352858</v>
+        <v>350268</v>
       </c>
       <c r="F42" s="5" t="n">
-        <v>424101</v>
+        <v>422384</v>
       </c>
       <c r="G42" s="6" t="n">
         <v>0.1257023927147169</v>
       </c>
       <c r="H42" s="6" t="n">
-        <v>0.1147182959052314</v>
+        <v>0.1138760161111634</v>
       </c>
       <c r="I42" s="6" t="n">
-        <v>0.1378801178165676</v>
+        <v>0.1373218636807501</v>
       </c>
       <c r="J42" s="5" t="n">
         <v>194</v>
@@ -9623,19 +9623,19 @@
         <v>206146</v>
       </c>
       <c r="L42" s="5" t="n">
-        <v>177587</v>
+        <v>180465</v>
       </c>
       <c r="M42" s="5" t="n">
-        <v>233951</v>
+        <v>236712</v>
       </c>
       <c r="N42" s="6" t="n">
         <v>0.08524538465647812</v>
       </c>
       <c r="O42" s="6" t="n">
-        <v>0.07343580924149055</v>
+        <v>0.0746258996734801</v>
       </c>
       <c r="P42" s="6" t="n">
-        <v>0.09674315739775022</v>
+        <v>0.09788500635156674</v>
       </c>
       <c r="Q42" s="5" t="n">
         <v>569</v>
@@ -9644,19 +9644,19 @@
         <v>592790</v>
       </c>
       <c r="S42" s="5" t="n">
-        <v>547985</v>
+        <v>540593</v>
       </c>
       <c r="T42" s="5" t="n">
-        <v>640924</v>
+        <v>638817</v>
       </c>
       <c r="U42" s="6" t="n">
         <v>0.1078950782530734</v>
       </c>
       <c r="V42" s="6" t="n">
-        <v>0.09974007556908122</v>
+        <v>0.09839451438235666</v>
       </c>
       <c r="W42" s="6" t="n">
-        <v>0.1166560476529924</v>
+        <v>0.1162725300206626</v>
       </c>
     </row>
     <row r="43">
@@ -9988,19 +9988,19 @@
         <v>456367</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>431885</v>
+        <v>432601</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>482140</v>
+        <v>480884</v>
       </c>
       <c r="G4" s="6" t="n">
-        <v>0.7085260473061168</v>
+        <v>0.7085260473061167</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.6705165324431088</v>
+        <v>0.6716278484624223</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.7485387280510443</v>
+        <v>0.7465893885748669</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>805</v>
@@ -10009,19 +10009,19 @@
         <v>476288</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>459886</v>
+        <v>460555</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>490850</v>
+        <v>490529</v>
       </c>
       <c r="N4" s="6" t="n">
-        <v>0.8262551604125312</v>
+        <v>0.8262551604125313</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.7978009215963652</v>
+        <v>0.7989607878401535</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.8515173541572196</v>
+        <v>0.8509591273126424</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>1295</v>
@@ -10030,19 +10030,19 @@
         <v>932655</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>902207</v>
+        <v>902572</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>958565</v>
+        <v>960566</v>
       </c>
       <c r="U4" s="6" t="n">
-        <v>0.7641272179285402</v>
+        <v>0.7641272179285403</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.739180917621633</v>
+        <v>0.7394807409713067</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.785355299716624</v>
+        <v>0.7869953059369647</v>
       </c>
     </row>
     <row r="5">
@@ -10059,19 +10059,19 @@
         <v>26717</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>18034</v>
+        <v>16922</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>37437</v>
+        <v>37600</v>
       </c>
       <c r="G5" s="6" t="n">
-        <v>0.04147972220871389</v>
+        <v>0.0414797222087139</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.02799843934320388</v>
+        <v>0.0262717020022807</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.05812229694470497</v>
+        <v>0.05837582334048351</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>12</v>
@@ -10080,19 +10080,19 @@
         <v>8439</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>4666</v>
+        <v>4468</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>14791</v>
+        <v>14601</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.01464041275352168</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.008094382950866603</v>
+        <v>0.007750951265561351</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.02565992918852722</v>
+        <v>0.02532946143566168</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>42</v>
@@ -10101,19 +10101,19 @@
         <v>35157</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>25428</v>
+        <v>25315</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>47109</v>
+        <v>47576</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.02880403830156269</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.02083358406036301</v>
+        <v>0.02074086288204977</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.03859678937048746</v>
+        <v>0.03897930559884919</v>
       </c>
     </row>
     <row r="6">
@@ -10133,7 +10133,7 @@
         <v>0</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>4088</v>
+        <v>2924</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.00109893856277638</v>
@@ -10142,7 +10142,7 @@
         <v>0</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.006347099740861646</v>
+        <v>0.004538957117346012</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>1</v>
@@ -10154,7 +10154,7 @@
         <v>0</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>2750</v>
+        <v>2271</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.0007847137015762461</v>
@@ -10163,7 +10163,7 @@
         <v>0</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.004771436302415236</v>
+        <v>0.003938985290068464</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>2</v>
@@ -10175,16 +10175,16 @@
         <v>0</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>3975</v>
+        <v>4657</v>
       </c>
       <c r="U6" s="6" t="n">
-        <v>0.0009505362716149422</v>
+        <v>0.0009505362716149423</v>
       </c>
       <c r="V6" s="6" t="n">
         <v>0</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.003256832486470338</v>
+        <v>0.003815431983119605</v>
       </c>
     </row>
     <row r="7">
@@ -10201,19 +10201,19 @@
         <v>7443</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>2588</v>
+        <v>2628</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>23498</v>
+        <v>19601</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.01155588792967263</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.004018249633461002</v>
+        <v>0.004079419389324261</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.03648127730624502</v>
+        <v>0.03043151791220284</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>1</v>
@@ -10225,7 +10225,7 @@
         <v>0</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>3331</v>
+        <v>3382</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.001164457178586655</v>
@@ -10234,7 +10234,7 @@
         <v>0</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.005778358491599784</v>
+        <v>0.005867477191743403</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>6</v>
@@ -10243,19 +10243,19 @@
         <v>8114</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>2722</v>
+        <v>2698</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>23109</v>
+        <v>23440</v>
       </c>
       <c r="U7" s="6" t="n">
-        <v>0.006648217269825045</v>
+        <v>0.006648217269825047</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.002230483386814444</v>
+        <v>0.002210421141250073</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.01893337371391732</v>
+        <v>0.01920414446257102</v>
       </c>
     </row>
     <row r="8">
@@ -10272,19 +10272,19 @@
         <v>31664</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>22770</v>
+        <v>22374</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>45427</v>
+        <v>45943</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.04915944824714228</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.03535114579638647</v>
+        <v>0.03473653611676472</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.07052638747269498</v>
+        <v>0.07132801671842441</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>24</v>
@@ -10293,19 +10293,19 @@
         <v>12452</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>7969</v>
+        <v>8013</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>18414</v>
+        <v>18828</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.0216022238259781</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.01382424497770692</v>
+        <v>0.01390112475210546</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.03194458457066143</v>
+        <v>0.03266325261996481</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>64</v>
@@ -10314,19 +10314,19 @@
         <v>44116</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>34049</v>
+        <v>33989</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>59140</v>
+        <v>58974</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.03614470706297482</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.02789647432951181</v>
+        <v>0.02784712440577547</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.04845352556775153</v>
+        <v>0.04831778465218431</v>
       </c>
     </row>
     <row r="9">
@@ -10343,19 +10343,19 @@
         <v>3669</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>1057</v>
+        <v>1039</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>9520</v>
+        <v>9653</v>
       </c>
       <c r="G9" s="6" t="n">
         <v>0.005696046591474891</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.001640939115834129</v>
+        <v>0.001612792772958587</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.01477974814670057</v>
+        <v>0.01498651344509112</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>4</v>
@@ -10364,19 +10364,19 @@
         <v>2833</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>602</v>
+        <v>595</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>7667</v>
+        <v>7202</v>
       </c>
       <c r="N9" s="6" t="n">
         <v>0.004914086183990873</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>0.001045004310337974</v>
+        <v>0.001032043563262545</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.01330138426554538</v>
+        <v>0.01249338412687775</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>8</v>
@@ -10385,19 +10385,19 @@
         <v>6502</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>2826</v>
+        <v>2830</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>12700</v>
+        <v>14145</v>
       </c>
       <c r="U9" s="6" t="n">
-        <v>0.005326741897934906</v>
+        <v>0.005326741897934907</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.002315131801374195</v>
+        <v>0.00231880966183082</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.01040544515901064</v>
+        <v>0.0115886433410037</v>
       </c>
     </row>
     <row r="10">
@@ -10414,19 +10414,19 @@
         <v>117539</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>98395</v>
+        <v>98574</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>137289</v>
+        <v>137889</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.1824839091541031</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.1527623594908447</v>
+        <v>0.1530398296958167</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.2131454336167012</v>
+        <v>0.2140769648290853</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>125</v>
@@ -10435,19 +10435,19 @@
         <v>75306</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>61538</v>
+        <v>62519</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>90090</v>
+        <v>89541</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.1306389459438151</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.106754663911423</v>
+        <v>0.1084568494775117</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.1562868187851138</v>
+        <v>0.1553335847944734</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>259</v>
@@ -10456,19 +10456,19 @@
         <v>192845</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>168390</v>
+        <v>170596</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>217567</v>
+        <v>220508</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.1579985412675474</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.1379623623488113</v>
+        <v>0.1397698903363726</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.1782535258953716</v>
+        <v>0.1806627164418383</v>
       </c>
     </row>
     <row r="11">
@@ -10560,19 +10560,19 @@
         <v>680659</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>649036</v>
+        <v>651470</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>709104</v>
+        <v>709557</v>
       </c>
       <c r="G12" s="6" t="n">
-        <v>0.7091202366846052</v>
+        <v>0.7091202366846053</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.6761748315373959</v>
+        <v>0.6787102326439466</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.7387551028548441</v>
+        <v>0.7392265894443251</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>927</v>
@@ -10581,19 +10581,19 @@
         <v>650055</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>630149</v>
+        <v>631458</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>668176</v>
+        <v>667588</v>
       </c>
       <c r="N12" s="6" t="n">
-        <v>0.8081672763275887</v>
+        <v>0.8081672763275889</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.7834190018490599</v>
+        <v>0.7850475366032681</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.8306955974663476</v>
+        <v>0.8299642378392503</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>1555</v>
@@ -10602,19 +10602,19 @@
         <v>1330714</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>1295039</v>
+        <v>1293207</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>1368254</v>
+        <v>1362660</v>
       </c>
       <c r="U12" s="6" t="n">
-        <v>0.754278524444472</v>
+        <v>0.7542785244444719</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.7340571999871901</v>
+        <v>0.733018799370495</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.7755568191493675</v>
+        <v>0.7723862712382121</v>
       </c>
     </row>
     <row r="13">
@@ -10631,19 +10631,19 @@
         <v>82878</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>65430</v>
+        <v>65500</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>102925</v>
+        <v>102800</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.08634352151967994</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.06816565167095529</v>
+        <v>0.06823906002666656</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.1072285645294956</v>
+        <v>0.1070980241871686</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>43</v>
@@ -10652,19 +10652,19 @@
         <v>32238</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>22514</v>
+        <v>22071</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>41340</v>
+        <v>41894</v>
       </c>
       <c r="N13" s="6" t="n">
-        <v>0.04007903695672896</v>
+        <v>0.04007903695672897</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.02799014462855867</v>
+        <v>0.02743888530836599</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.05139477160880802</v>
+        <v>0.05208328695541643</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>121</v>
@@ -10673,19 +10673,19 @@
         <v>115116</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>96502</v>
+        <v>98243</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>137353</v>
+        <v>138224</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.06525026204936876</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.05469939295075803</v>
+        <v>0.05568658367269529</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.07785470945131864</v>
+        <v>0.07834841339480911</v>
       </c>
     </row>
     <row r="14">
@@ -10718,7 +10718,7 @@
         <v>0</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>5683</v>
+        <v>5018</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.001770684577267208</v>
@@ -10727,7 +10727,7 @@
         <v>0</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.007065019229870831</v>
+        <v>0.006238244163767149</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>2</v>
@@ -10739,16 +10739,16 @@
         <v>0</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>4856</v>
+        <v>4947</v>
       </c>
       <c r="U14" s="6" t="n">
-        <v>0.0008073041249936525</v>
+        <v>0.0008073041249936524</v>
       </c>
       <c r="V14" s="6" t="n">
         <v>0</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.002752485357666147</v>
+        <v>0.002803829337252911</v>
       </c>
     </row>
     <row r="15">
@@ -10765,19 +10765,19 @@
         <v>5086</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>1880</v>
+        <v>2087</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>12777</v>
+        <v>13013</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>0.005298508553982015</v>
+        <v>0.005298508553982016</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>0.001958773443022289</v>
+        <v>0.002174396674016915</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.01331085467489117</v>
+        <v>0.0135567321756377</v>
       </c>
       <c r="J15" s="5" t="n">
         <v>9</v>
@@ -10786,19 +10786,19 @@
         <v>6101</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>2998</v>
+        <v>2787</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>11003</v>
+        <v>11227</v>
       </c>
       <c r="N15" s="6" t="n">
         <v>0.007585133490102552</v>
       </c>
       <c r="O15" s="6" t="n">
-        <v>0.003726998875018745</v>
+        <v>0.003464915157875505</v>
       </c>
       <c r="P15" s="6" t="n">
-        <v>0.01367890253404136</v>
+        <v>0.01395713686533895</v>
       </c>
       <c r="Q15" s="5" t="n">
         <v>14</v>
@@ -10807,19 +10807,19 @@
         <v>11187</v>
       </c>
       <c r="S15" s="5" t="n">
-        <v>5944</v>
+        <v>6046</v>
       </c>
       <c r="T15" s="5" t="n">
-        <v>19602</v>
+        <v>19264</v>
       </c>
       <c r="U15" s="6" t="n">
         <v>0.006341044173788728</v>
       </c>
       <c r="V15" s="6" t="n">
-        <v>0.003368971463683491</v>
+        <v>0.003426758705195691</v>
       </c>
       <c r="W15" s="6" t="n">
-        <v>0.0111107487859146</v>
+        <v>0.01091949249530385</v>
       </c>
     </row>
     <row r="16">
@@ -10836,19 +10836,19 @@
         <v>47661</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>35600</v>
+        <v>34779</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>63165</v>
+        <v>62005</v>
       </c>
       <c r="G16" s="6" t="n">
-        <v>0.04965421052659427</v>
+        <v>0.04965421052659428</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.03708865370588794</v>
+        <v>0.03623364959487368</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.0658061750437251</v>
+        <v>0.06459749041212137</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>36</v>
@@ -10857,19 +10857,19 @@
         <v>23465</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>16221</v>
+        <v>16850</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>31053</v>
+        <v>32514</v>
       </c>
       <c r="N16" s="6" t="n">
-        <v>0.02917180317783847</v>
+        <v>0.02917180317783848</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.02016701747403566</v>
+        <v>0.02094788581400755</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.03860654476236759</v>
+        <v>0.04042198597315443</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>89</v>
@@ -10878,19 +10878,19 @@
         <v>71126</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>57764</v>
+        <v>57800</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>89577</v>
+        <v>88615</v>
       </c>
       <c r="U16" s="6" t="n">
-        <v>0.04031571390515139</v>
+        <v>0.04031571390515137</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.0327420781801662</v>
+        <v>0.032762384474194</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.05077430646190052</v>
+        <v>0.05022879018946162</v>
       </c>
     </row>
     <row r="17">
@@ -10907,19 +10907,19 @@
         <v>15240</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>8633</v>
+        <v>8866</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>25022</v>
+        <v>25429</v>
       </c>
       <c r="G17" s="6" t="n">
-        <v>0.01587708562973818</v>
+        <v>0.01587708562973819</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.00899447357853141</v>
+        <v>0.009236818956816877</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.02606821757800851</v>
+        <v>0.02649186174636418</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>2</v>
@@ -10931,16 +10931,16 @@
         <v>0</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>6275</v>
+        <v>5985</v>
       </c>
       <c r="N17" s="6" t="n">
-        <v>0.001941267146348737</v>
+        <v>0.001941267146348738</v>
       </c>
       <c r="O17" s="6" t="n">
         <v>0</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.007801676596141153</v>
+        <v>0.007441271403172234</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>17</v>
@@ -10949,19 +10949,19 @@
         <v>16801</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>10323</v>
+        <v>10126</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>26261</v>
+        <v>26684</v>
       </c>
       <c r="U17" s="6" t="n">
-        <v>0.009523360132130647</v>
+        <v>0.009523360132130645</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.005851457579562533</v>
+        <v>0.005739533897642556</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.01488546693445588</v>
+        <v>0.01512497642248808</v>
       </c>
     </row>
     <row r="18">
@@ -10978,19 +10978,19 @@
         <v>128340</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>106628</v>
+        <v>106953</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>151120</v>
+        <v>152005</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.1337064370854003</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.1110865455676646</v>
+        <v>0.1114256329626925</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.1574393520015162</v>
+        <v>0.1583607509704772</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>132</v>
@@ -10999,19 +10999,19 @@
         <v>89513</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>75418</v>
+        <v>75954</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>106199</v>
+        <v>105338</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.1112847983241253</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.09376189895839267</v>
+        <v>0.09442875424360732</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.132030009326926</v>
+        <v>0.1309595709634244</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>264</v>
@@ -11020,19 +11020,19 @@
         <v>217853</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>191471</v>
+        <v>193867</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>243833</v>
+        <v>244699</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.1234837911700949</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.1085301310905658</v>
+        <v>0.1098882203734689</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.1382100041248297</v>
+        <v>0.1387007265872354</v>
       </c>
     </row>
     <row r="19">
@@ -11124,19 +11124,19 @@
         <v>562422</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>536549</v>
+        <v>537587</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>587819</v>
+        <v>585605</v>
       </c>
       <c r="G20" s="6" t="n">
-        <v>0.7665254589558146</v>
+        <v>0.7665254589558145</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.7312636970644071</v>
+        <v>0.7326785068659837</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.8011391451240766</v>
+        <v>0.7981213849090407</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>677</v>
@@ -11145,19 +11145,19 @@
         <v>517617</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>500716</v>
+        <v>502304</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>530184</v>
+        <v>531405</v>
       </c>
       <c r="N20" s="6" t="n">
-        <v>0.8512598434398621</v>
+        <v>0.8512598434398623</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.8234644511486482</v>
+        <v>0.826076260390615</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.8719270690104415</v>
+        <v>0.8739351217520365</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>1156</v>
@@ -11166,19 +11166,19 @@
         <v>1080039</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>1050925</v>
+        <v>1047631</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>1108647</v>
+        <v>1107508</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.8049246138129126</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.7832267908749337</v>
+        <v>0.7807716077075563</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.8262453969000003</v>
+        <v>0.8253965654323316</v>
       </c>
     </row>
     <row r="21">
@@ -11195,19 +11195,19 @@
         <v>54511</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>42530</v>
+        <v>41278</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>70284</v>
+        <v>70113</v>
       </c>
       <c r="G21" s="6" t="n">
-        <v>0.074293184618325</v>
+        <v>0.07429318461832499</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.05796449658048908</v>
+        <v>0.05625735405158417</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.09579073369091839</v>
+        <v>0.09555728191920156</v>
       </c>
       <c r="J21" s="5" t="n">
         <v>27</v>
@@ -11216,19 +11216,19 @@
         <v>20957</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>14204</v>
+        <v>13829</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>30188</v>
+        <v>29920</v>
       </c>
       <c r="N21" s="6" t="n">
         <v>0.0344647351021059</v>
       </c>
       <c r="O21" s="6" t="n">
-        <v>0.02336009677407105</v>
+        <v>0.02274296030624086</v>
       </c>
       <c r="P21" s="6" t="n">
-        <v>0.04964602684553419</v>
+        <v>0.04920578973101663</v>
       </c>
       <c r="Q21" s="5" t="n">
         <v>82</v>
@@ -11237,19 +11237,19 @@
         <v>75468</v>
       </c>
       <c r="S21" s="5" t="n">
-        <v>60886</v>
+        <v>60055</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>95026</v>
+        <v>94792</v>
       </c>
       <c r="U21" s="6" t="n">
         <v>0.05624409144317679</v>
       </c>
       <c r="V21" s="6" t="n">
-        <v>0.04537706801563145</v>
+        <v>0.0447574912704554</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.07082041083437314</v>
+        <v>0.07064606737842602</v>
       </c>
     </row>
     <row r="22">
@@ -11266,19 +11266,19 @@
         <v>7543</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>3199</v>
+        <v>3231</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>14903</v>
+        <v>15286</v>
       </c>
       <c r="G22" s="6" t="n">
-        <v>0.01028084994079792</v>
+        <v>0.01028084994079791</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.004359458889169036</v>
+        <v>0.00440333454980327</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.02031192213025849</v>
+        <v>0.02083266713607753</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>5</v>
@@ -11287,19 +11287,19 @@
         <v>3758</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>1304</v>
+        <v>1343</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>8278</v>
+        <v>8077</v>
       </c>
       <c r="N22" s="6" t="n">
-        <v>0.006180969904619818</v>
+        <v>0.00618096990461982</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.002145094845481036</v>
+        <v>0.002209164727107313</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.01361318692557869</v>
+        <v>0.01328321554000786</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>12</v>
@@ -11308,19 +11308,19 @@
         <v>11302</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>5868</v>
+        <v>5990</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>18867</v>
+        <v>19228</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.008422903732026362</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.004372935107264293</v>
+        <v>0.004464468300667047</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.0140612478797995</v>
+        <v>0.01433017878722635</v>
       </c>
     </row>
     <row r="23">
@@ -11337,19 +11337,19 @@
         <v>12882</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>6988</v>
+        <v>6633</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>26832</v>
+        <v>25414</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.01755721337946738</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.009523924416001453</v>
+        <v>0.00903985326792078</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.03656966692617029</v>
+        <v>0.0346362372150144</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>3</v>
@@ -11358,19 +11358,19 @@
         <v>2038</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>651</v>
+        <v>655</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>5441</v>
+        <v>5473</v>
       </c>
       <c r="N23" s="6" t="n">
-        <v>0.003351863917635926</v>
+        <v>0.003351863917635927</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.001069896454433282</v>
+        <v>0.001077077717331633</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.008947449483437214</v>
+        <v>0.009000882087139343</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>14</v>
@@ -11379,19 +11379,19 @@
         <v>14920</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>8409</v>
+        <v>7877</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>28427</v>
+        <v>27457</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.01111976278481825</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.006266969835015589</v>
+        <v>0.005870498925257134</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.02118593634953041</v>
+        <v>0.02046302171624996</v>
       </c>
     </row>
     <row r="24">
@@ -11408,19 +11408,19 @@
         <v>15403</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>8908</v>
+        <v>9193</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>24982</v>
+        <v>24915</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.02099326725769863</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.01214057855956374</v>
+        <v>0.01252852920457555</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.0340485850533751</v>
+        <v>0.03395701967297614</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>13</v>
@@ -11429,19 +11429,19 @@
         <v>8668</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>4746</v>
+        <v>4901</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>14084</v>
+        <v>14671</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.01425517886465268</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.007804428899363202</v>
+        <v>0.008060414738649191</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.02316220247369405</v>
+        <v>0.02412704158261194</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>30</v>
@@ -11450,19 +11450,19 @@
         <v>24071</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>16699</v>
+        <v>16464</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>34325</v>
+        <v>34348</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.01793976186881961</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.01244564526415753</v>
+        <v>0.01226994763433742</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.02558184607187962</v>
+        <v>0.02559877225834615</v>
       </c>
     </row>
     <row r="25">
@@ -11479,19 +11479,19 @@
         <v>8710</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>4148</v>
+        <v>3933</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>16114</v>
+        <v>15302</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.01187060923304518</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.005652986509826183</v>
+        <v>0.005360053300792114</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.0219622354931054</v>
+        <v>0.02085533085481895</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>3</v>
@@ -11500,19 +11500,19 @@
         <v>2040</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>663</v>
+        <v>666</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>5394</v>
+        <v>6173</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.003355383978044137</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.001090934470103321</v>
+        <v>0.00109577593482928</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.008871158476591614</v>
+        <v>0.01015269941222807</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>12</v>
@@ -11521,19 +11521,19 @@
         <v>10750</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>6020</v>
+        <v>5933</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>18902</v>
+        <v>19556</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.008011757183775678</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.004486558933924397</v>
+        <v>0.004422052146285794</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.01408682724436192</v>
+        <v>0.01457431030154048</v>
       </c>
     </row>
     <row r="26">
@@ -11550,19 +11550,19 @@
         <v>72257</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>55701</v>
+        <v>57250</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>89821</v>
+        <v>91382</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>0.09847941661485132</v>
+        <v>0.09847941661485131</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.0759149296356277</v>
+        <v>0.07802612891630931</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.1224170241090527</v>
+        <v>0.124544315672204</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>75</v>
@@ -11571,19 +11571,19 @@
         <v>52981</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>42562</v>
+        <v>42851</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>66159</v>
+        <v>65873</v>
       </c>
       <c r="N26" s="6" t="n">
-        <v>0.0871320247930793</v>
+        <v>0.08713202479307933</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.06999624919576664</v>
+        <v>0.07047124039939034</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.1088038217658298</v>
+        <v>0.1083337587546457</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>143</v>
@@ -11592,19 +11592,19 @@
         <v>125239</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>105049</v>
+        <v>106459</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>146773</v>
+        <v>148372</v>
       </c>
       <c r="U26" s="6" t="n">
-        <v>0.0933371091744707</v>
+        <v>0.09333710917447069</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.07829039714046301</v>
+        <v>0.07934128812930151</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.1093857099313515</v>
+        <v>0.110577433546575</v>
       </c>
     </row>
     <row r="27">
@@ -11696,19 +11696,19 @@
         <v>633119</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>602845</v>
+        <v>604273</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>658887</v>
+        <v>658334</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.7101318084704445</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.6761751511730238</v>
+        <v>0.6777767127656481</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.7390342294592306</v>
+        <v>0.7384145699681947</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>921</v>
@@ -11717,19 +11717,19 @@
         <v>644207</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>624353</v>
+        <v>623411</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>662320</v>
+        <v>661665</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.7955801452000438</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.7710603020387061</v>
+        <v>0.7698968495102958</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.8179482809400752</v>
+        <v>0.8171396770008157</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>1584</v>
@@ -11738,19 +11738,19 @@
         <v>1277326</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>1245866</v>
+        <v>1244841</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>1310325</v>
+        <v>1310699</v>
       </c>
       <c r="U28" s="6" t="n">
-        <v>0.7508012848854546</v>
+        <v>0.7508012848854544</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.7323094603407041</v>
+        <v>0.7317069393496286</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.7701977620688509</v>
+        <v>0.7704174510565669</v>
       </c>
     </row>
     <row r="29">
@@ -11767,19 +11767,19 @@
         <v>104513</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>84979</v>
+        <v>87231</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>124942</v>
+        <v>124682</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.1172262539175517</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.09531618695621469</v>
+        <v>0.09784234339697552</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.1401401277160415</v>
+        <v>0.1398486807372867</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>68</v>
@@ -11788,19 +11788,19 @@
         <v>48408</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>37693</v>
+        <v>38949</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>61031</v>
+        <v>62804</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.05978208058196469</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.04655035647397381</v>
+        <v>0.04810144140904528</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.07537192020316362</v>
+        <v>0.07756185382803717</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>183</v>
@@ -11809,19 +11809,19 @@
         <v>152921</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>130913</v>
+        <v>131238</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>176532</v>
+        <v>176941</v>
       </c>
       <c r="U29" s="6" t="n">
-        <v>0.08988547067861787</v>
+        <v>0.08988547067861785</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.07694951310865782</v>
+        <v>0.07714049112889322</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.1037640330649206</v>
+        <v>0.1040044551071573</v>
       </c>
     </row>
     <row r="30">
@@ -11838,19 +11838,19 @@
         <v>7308</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>3403</v>
+        <v>3601</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>13739</v>
+        <v>13475</v>
       </c>
       <c r="G30" s="6" t="n">
-        <v>0.008196744617411022</v>
+        <v>0.008196744617411024</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>0.003817298901687995</v>
+        <v>0.004038524685187876</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.01541048118592741</v>
+        <v>0.01511370145217184</v>
       </c>
       <c r="J30" s="5" t="n">
         <v>4</v>
@@ -11859,19 +11859,19 @@
         <v>2494</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>694</v>
+        <v>684</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>6725</v>
+        <v>6102</v>
       </c>
       <c r="N30" s="6" t="n">
         <v>0.003079812701475171</v>
       </c>
       <c r="O30" s="6" t="n">
-        <v>0.0008567267580390135</v>
+        <v>0.0008442102550280287</v>
       </c>
       <c r="P30" s="6" t="n">
-        <v>0.00830544139486738</v>
+        <v>0.007536332781861667</v>
       </c>
       <c r="Q30" s="5" t="n">
         <v>13</v>
@@ -11880,19 +11880,19 @@
         <v>9802</v>
       </c>
       <c r="S30" s="5" t="n">
-        <v>5545</v>
+        <v>4932</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>16824</v>
+        <v>16756</v>
       </c>
       <c r="U30" s="6" t="n">
         <v>0.005761320478835858</v>
       </c>
       <c r="V30" s="6" t="n">
-        <v>0.00325935823014984</v>
+        <v>0.00289901820621863</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.009889267758602096</v>
+        <v>0.009848959541033349</v>
       </c>
     </row>
     <row r="31">
@@ -11909,19 +11909,19 @@
         <v>12224</v>
       </c>
       <c r="E31" s="5" t="n">
-        <v>6656</v>
+        <v>6540</v>
       </c>
       <c r="F31" s="5" t="n">
-        <v>20552</v>
+        <v>19972</v>
       </c>
       <c r="G31" s="6" t="n">
         <v>0.01371078571603485</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>0.007465620957516225</v>
+        <v>0.007335707456202089</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>0.02305183745654391</v>
+        <v>0.0224018952495386</v>
       </c>
       <c r="J31" s="5" t="n">
         <v>13</v>
@@ -11930,19 +11930,19 @@
         <v>10556</v>
       </c>
       <c r="L31" s="5" t="n">
-        <v>5935</v>
+        <v>5846</v>
       </c>
       <c r="M31" s="5" t="n">
-        <v>17788</v>
+        <v>18607</v>
       </c>
       <c r="N31" s="6" t="n">
         <v>0.01303591120152987</v>
       </c>
       <c r="O31" s="6" t="n">
-        <v>0.007329019373266543</v>
+        <v>0.007219670383498888</v>
       </c>
       <c r="P31" s="6" t="n">
-        <v>0.02196749220318057</v>
+        <v>0.02297962263481748</v>
       </c>
       <c r="Q31" s="5" t="n">
         <v>27</v>
@@ -11951,19 +11951,19 @@
         <v>22779</v>
       </c>
       <c r="S31" s="5" t="n">
-        <v>15517</v>
+        <v>14961</v>
       </c>
       <c r="T31" s="5" t="n">
-        <v>32784</v>
+        <v>33080</v>
       </c>
       <c r="U31" s="6" t="n">
         <v>0.01338957650118954</v>
       </c>
       <c r="V31" s="6" t="n">
-        <v>0.009120777905175783</v>
+        <v>0.008793718892749817</v>
       </c>
       <c r="W31" s="6" t="n">
-        <v>0.01927010648277403</v>
+        <v>0.01944428561679335</v>
       </c>
     </row>
     <row r="32">
@@ -11980,19 +11980,19 @@
         <v>21381</v>
       </c>
       <c r="E32" s="5" t="n">
-        <v>14415</v>
+        <v>13931</v>
       </c>
       <c r="F32" s="5" t="n">
-        <v>31131</v>
+        <v>30377</v>
       </c>
       <c r="G32" s="6" t="n">
         <v>0.02398155152786427</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.01616803159606234</v>
+        <v>0.01562592715092256</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.03491825259152997</v>
+        <v>0.03407198890349632</v>
       </c>
       <c r="J32" s="5" t="n">
         <v>19</v>
@@ -12001,19 +12001,19 @@
         <v>13404</v>
       </c>
       <c r="L32" s="5" t="n">
-        <v>8520</v>
+        <v>8449</v>
       </c>
       <c r="M32" s="5" t="n">
-        <v>21213</v>
+        <v>21159</v>
       </c>
       <c r="N32" s="6" t="n">
         <v>0.01655348377376696</v>
       </c>
       <c r="O32" s="6" t="n">
-        <v>0.01052216961793049</v>
+        <v>0.0104342630364139</v>
       </c>
       <c r="P32" s="6" t="n">
-        <v>0.02619779938345888</v>
+        <v>0.02613133124122035</v>
       </c>
       <c r="Q32" s="5" t="n">
         <v>46</v>
@@ -12022,19 +12022,19 @@
         <v>34785</v>
       </c>
       <c r="S32" s="5" t="n">
-        <v>25824</v>
+        <v>25320</v>
       </c>
       <c r="T32" s="5" t="n">
-        <v>46991</v>
+        <v>45479</v>
       </c>
       <c r="U32" s="6" t="n">
-        <v>0.02044613307624086</v>
+        <v>0.02044613307624085</v>
       </c>
       <c r="V32" s="6" t="n">
-        <v>0.01517891327887461</v>
+        <v>0.01488266991196789</v>
       </c>
       <c r="W32" s="6" t="n">
-        <v>0.02762085127476929</v>
+        <v>0.02673216989324477</v>
       </c>
     </row>
     <row r="33">
@@ -12051,19 +12051,19 @@
         <v>14519</v>
       </c>
       <c r="E33" s="5" t="n">
-        <v>8486</v>
+        <v>8502</v>
       </c>
       <c r="F33" s="5" t="n">
-        <v>24641</v>
+        <v>23808</v>
       </c>
       <c r="G33" s="6" t="n">
         <v>0.01628479022238868</v>
       </c>
       <c r="H33" s="6" t="n">
-        <v>0.009518100427968549</v>
+        <v>0.009536447903922014</v>
       </c>
       <c r="I33" s="6" t="n">
-        <v>0.02763872464534782</v>
+        <v>0.02670380014138987</v>
       </c>
       <c r="J33" s="5" t="n">
         <v>7</v>
@@ -12072,19 +12072,19 @@
         <v>4477</v>
       </c>
       <c r="L33" s="5" t="n">
-        <v>1994</v>
+        <v>1884</v>
       </c>
       <c r="M33" s="5" t="n">
-        <v>9076</v>
+        <v>8558</v>
       </c>
       <c r="N33" s="6" t="n">
         <v>0.005528968467490813</v>
       </c>
       <c r="O33" s="6" t="n">
-        <v>0.002462647582558252</v>
+        <v>0.002326431516767137</v>
       </c>
       <c r="P33" s="6" t="n">
-        <v>0.01120864892462541</v>
+        <v>0.01056860741690545</v>
       </c>
       <c r="Q33" s="5" t="n">
         <v>23</v>
@@ -12093,19 +12093,19 @@
         <v>18996</v>
       </c>
       <c r="S33" s="5" t="n">
-        <v>12212</v>
+        <v>11873</v>
       </c>
       <c r="T33" s="5" t="n">
-        <v>29086</v>
+        <v>27734</v>
       </c>
       <c r="U33" s="6" t="n">
         <v>0.01116551399154611</v>
       </c>
       <c r="V33" s="6" t="n">
-        <v>0.007178306751985592</v>
+        <v>0.006979094352772877</v>
       </c>
       <c r="W33" s="6" t="n">
-        <v>0.01709660382336657</v>
+        <v>0.01630174661384804</v>
       </c>
     </row>
     <row r="34">
@@ -12122,19 +12122,19 @@
         <v>98488</v>
       </c>
       <c r="E34" s="5" t="n">
-        <v>81920</v>
+        <v>82614</v>
       </c>
       <c r="F34" s="5" t="n">
-        <v>119644</v>
+        <v>118991</v>
       </c>
       <c r="G34" s="6" t="n">
         <v>0.110468065528305</v>
       </c>
       <c r="H34" s="6" t="n">
-        <v>0.09188530658829538</v>
+        <v>0.09266341767096326</v>
       </c>
       <c r="I34" s="6" t="n">
-        <v>0.134197305703427</v>
+        <v>0.1334652052101468</v>
       </c>
       <c r="J34" s="5" t="n">
         <v>135</v>
@@ -12143,19 +12143,19 @@
         <v>86188</v>
       </c>
       <c r="L34" s="5" t="n">
-        <v>72660</v>
+        <v>72149</v>
       </c>
       <c r="M34" s="5" t="n">
-        <v>102457</v>
+        <v>100983</v>
       </c>
       <c r="N34" s="6" t="n">
         <v>0.1064395980737287</v>
       </c>
       <c r="O34" s="6" t="n">
-        <v>0.08973348007575745</v>
+        <v>0.0891021358431684</v>
       </c>
       <c r="P34" s="6" t="n">
-        <v>0.1265317118121961</v>
+        <v>0.1247112747323678</v>
       </c>
       <c r="Q34" s="5" t="n">
         <v>243</v>
@@ -12164,19 +12164,19 @@
         <v>184676</v>
       </c>
       <c r="S34" s="5" t="n">
-        <v>161764</v>
+        <v>162190</v>
       </c>
       <c r="T34" s="5" t="n">
-        <v>207367</v>
+        <v>210207</v>
       </c>
       <c r="U34" s="6" t="n">
         <v>0.1085507003881152</v>
       </c>
       <c r="V34" s="6" t="n">
-        <v>0.09508375245858068</v>
+        <v>0.09533384757272451</v>
       </c>
       <c r="W34" s="6" t="n">
-        <v>0.1218888154660246</v>
+        <v>0.1235576183344104</v>
       </c>
     </row>
     <row r="35">
@@ -12268,19 +12268,19 @@
         <v>2332567</v>
       </c>
       <c r="E36" s="5" t="n">
-        <v>2271831</v>
+        <v>2283237</v>
       </c>
       <c r="F36" s="5" t="n">
-        <v>2378622</v>
+        <v>2388054</v>
       </c>
       <c r="G36" s="6" t="n">
-        <v>0.7223242368872295</v>
+        <v>0.7223242368872292</v>
       </c>
       <c r="H36" s="6" t="n">
-        <v>0.7035163045823575</v>
+        <v>0.7070483681178489</v>
       </c>
       <c r="I36" s="6" t="n">
-        <v>0.7365859843553962</v>
+        <v>0.7395067649642582</v>
       </c>
       <c r="J36" s="5" t="n">
         <v>3330</v>
@@ -12289,19 +12289,19 @@
         <v>2288167</v>
       </c>
       <c r="L36" s="5" t="n">
-        <v>2252201</v>
+        <v>2253126</v>
       </c>
       <c r="M36" s="5" t="n">
-        <v>2322833</v>
+        <v>2322897</v>
       </c>
       <c r="N36" s="6" t="n">
-        <v>0.8176139037035004</v>
+        <v>0.8176139037035002</v>
       </c>
       <c r="O36" s="6" t="n">
-        <v>0.8047626061474531</v>
+        <v>0.805092920930779</v>
       </c>
       <c r="P36" s="6" t="n">
-        <v>0.8300008377777048</v>
+        <v>0.8300237397109628</v>
       </c>
       <c r="Q36" s="5" t="n">
         <v>5590</v>
@@ -12310,19 +12310,19 @@
         <v>4620734</v>
       </c>
       <c r="S36" s="5" t="n">
-        <v>4555983</v>
+        <v>4556674</v>
       </c>
       <c r="T36" s="5" t="n">
-        <v>4679472</v>
+        <v>4677041</v>
       </c>
       <c r="U36" s="6" t="n">
         <v>0.7665650767656352</v>
       </c>
       <c r="V36" s="6" t="n">
-        <v>0.7558231593682802</v>
+        <v>0.7559377058184693</v>
       </c>
       <c r="W36" s="6" t="n">
-        <v>0.7763094990337763</v>
+        <v>0.775906199151876</v>
       </c>
     </row>
     <row r="37">
@@ -12339,19 +12339,19 @@
         <v>268620</v>
       </c>
       <c r="E37" s="5" t="n">
-        <v>236124</v>
+        <v>240149</v>
       </c>
       <c r="F37" s="5" t="n">
-        <v>300544</v>
+        <v>301207</v>
       </c>
       <c r="G37" s="6" t="n">
-        <v>0.08318326400751604</v>
+        <v>0.08318326400751601</v>
       </c>
       <c r="H37" s="6" t="n">
-        <v>0.07312019262341335</v>
+        <v>0.07436678843530239</v>
       </c>
       <c r="I37" s="6" t="n">
-        <v>0.09306932066956676</v>
+        <v>0.09327451741117269</v>
       </c>
       <c r="J37" s="5" t="n">
         <v>150</v>
@@ -12360,19 +12360,19 @@
         <v>110041</v>
       </c>
       <c r="L37" s="5" t="n">
-        <v>93934</v>
+        <v>93010</v>
       </c>
       <c r="M37" s="5" t="n">
-        <v>128537</v>
+        <v>129856</v>
       </c>
       <c r="N37" s="6" t="n">
-        <v>0.0393202578414614</v>
+        <v>0.03932025784146139</v>
       </c>
       <c r="O37" s="6" t="n">
-        <v>0.03356467697183187</v>
+        <v>0.03323472569761437</v>
       </c>
       <c r="P37" s="6" t="n">
-        <v>0.04592934357804512</v>
+        <v>0.04640036817186977</v>
       </c>
       <c r="Q37" s="5" t="n">
         <v>428</v>
@@ -12381,19 +12381,19 @@
         <v>378661</v>
       </c>
       <c r="S37" s="5" t="n">
-        <v>341839</v>
+        <v>345447</v>
       </c>
       <c r="T37" s="5" t="n">
-        <v>416796</v>
+        <v>417026</v>
       </c>
       <c r="U37" s="6" t="n">
         <v>0.06281866103204835</v>
       </c>
       <c r="V37" s="6" t="n">
-        <v>0.05670993362276509</v>
+        <v>0.057308618690481</v>
       </c>
       <c r="W37" s="6" t="n">
-        <v>0.06914506667419124</v>
+        <v>0.06918336366261561</v>
       </c>
     </row>
     <row r="38">
@@ -12410,19 +12410,19 @@
         <v>15559</v>
       </c>
       <c r="E38" s="5" t="n">
-        <v>9018</v>
+        <v>8981</v>
       </c>
       <c r="F38" s="5" t="n">
-        <v>23898</v>
+        <v>25068</v>
       </c>
       <c r="G38" s="6" t="n">
-        <v>0.004818147597970087</v>
+        <v>0.004818147597970085</v>
       </c>
       <c r="H38" s="6" t="n">
-        <v>0.002792661659509311</v>
+        <v>0.002781181386154268</v>
       </c>
       <c r="I38" s="6" t="n">
-        <v>0.007400349529415316</v>
+        <v>0.007762934443721208</v>
       </c>
       <c r="J38" s="5" t="n">
         <v>12</v>
@@ -12431,19 +12431,19 @@
         <v>8129</v>
       </c>
       <c r="L38" s="5" t="n">
-        <v>4141</v>
+        <v>4454</v>
       </c>
       <c r="M38" s="5" t="n">
-        <v>14101</v>
+        <v>14801</v>
       </c>
       <c r="N38" s="6" t="n">
-        <v>0.002904614325444168</v>
+        <v>0.002904614325444167</v>
       </c>
       <c r="O38" s="6" t="n">
-        <v>0.001479649532116468</v>
+        <v>0.001591559348002708</v>
       </c>
       <c r="P38" s="6" t="n">
-        <v>0.005038637540419958</v>
+        <v>0.005288871820192833</v>
       </c>
       <c r="Q38" s="5" t="n">
         <v>29</v>
@@ -12452,19 +12452,19 @@
         <v>23688</v>
       </c>
       <c r="S38" s="5" t="n">
-        <v>15972</v>
+        <v>16089</v>
       </c>
       <c r="T38" s="5" t="n">
-        <v>34045</v>
+        <v>33666</v>
       </c>
       <c r="U38" s="6" t="n">
         <v>0.003929737322855492</v>
       </c>
       <c r="V38" s="6" t="n">
-        <v>0.002649626437207336</v>
+        <v>0.002669177814466864</v>
       </c>
       <c r="W38" s="6" t="n">
-        <v>0.005647877087457232</v>
+        <v>0.005585019457086815</v>
       </c>
     </row>
     <row r="39">
@@ -12481,19 +12481,19 @@
         <v>37635</v>
       </c>
       <c r="E39" s="5" t="n">
-        <v>26465</v>
+        <v>26350</v>
       </c>
       <c r="F39" s="5" t="n">
-        <v>55841</v>
+        <v>54229</v>
       </c>
       <c r="G39" s="6" t="n">
-        <v>0.01165446104221533</v>
+        <v>0.01165446104221532</v>
       </c>
       <c r="H39" s="6" t="n">
-        <v>0.008195527015899923</v>
+        <v>0.008159649408228024</v>
       </c>
       <c r="I39" s="6" t="n">
-        <v>0.01729238896065941</v>
+        <v>0.01679303717874248</v>
       </c>
       <c r="J39" s="5" t="n">
         <v>26</v>
@@ -12502,19 +12502,19 @@
         <v>19366</v>
       </c>
       <c r="L39" s="5" t="n">
-        <v>12858</v>
+        <v>12556</v>
       </c>
       <c r="M39" s="5" t="n">
-        <v>28656</v>
+        <v>28249</v>
       </c>
       <c r="N39" s="6" t="n">
-        <v>0.006919958716106738</v>
+        <v>0.006919958716106735</v>
       </c>
       <c r="O39" s="6" t="n">
-        <v>0.004594363305781052</v>
+        <v>0.004486400081871121</v>
       </c>
       <c r="P39" s="6" t="n">
-        <v>0.01023957486454397</v>
+        <v>0.01009404608871793</v>
       </c>
       <c r="Q39" s="5" t="n">
         <v>61</v>
@@ -12523,19 +12523,19 @@
         <v>57001</v>
       </c>
       <c r="S39" s="5" t="n">
-        <v>43282</v>
+        <v>42700</v>
       </c>
       <c r="T39" s="5" t="n">
-        <v>76157</v>
+        <v>76770</v>
       </c>
       <c r="U39" s="6" t="n">
-        <v>0.009456338556204652</v>
+        <v>0.00945633855620465</v>
       </c>
       <c r="V39" s="6" t="n">
-        <v>0.007180342549908909</v>
+        <v>0.007083840078876383</v>
       </c>
       <c r="W39" s="6" t="n">
-        <v>0.01263417234573892</v>
+        <v>0.0127358321037432</v>
       </c>
     </row>
     <row r="40">
@@ -12552,19 +12552,19 @@
         <v>116109</v>
       </c>
       <c r="E40" s="5" t="n">
-        <v>97394</v>
+        <v>96419</v>
       </c>
       <c r="F40" s="5" t="n">
-        <v>137912</v>
+        <v>137603</v>
       </c>
       <c r="G40" s="6" t="n">
-        <v>0.03595551409834465</v>
+        <v>0.03595551409834463</v>
       </c>
       <c r="H40" s="6" t="n">
-        <v>0.03015991610762995</v>
+        <v>0.02985786575383204</v>
       </c>
       <c r="I40" s="6" t="n">
-        <v>0.0427072064566919</v>
+        <v>0.04261131242661512</v>
       </c>
       <c r="J40" s="5" t="n">
         <v>92</v>
@@ -12573,19 +12573,19 @@
         <v>57989</v>
       </c>
       <c r="L40" s="5" t="n">
-        <v>47236</v>
+        <v>45147</v>
       </c>
       <c r="M40" s="5" t="n">
-        <v>70497</v>
+        <v>71447</v>
       </c>
       <c r="N40" s="6" t="n">
         <v>0.02072073525280821</v>
       </c>
       <c r="O40" s="6" t="n">
-        <v>0.01687864644269966</v>
+        <v>0.01613204361608754</v>
       </c>
       <c r="P40" s="6" t="n">
-        <v>0.02519007140239774</v>
+        <v>0.02552974085053975</v>
       </c>
       <c r="Q40" s="5" t="n">
         <v>229</v>
@@ -12594,19 +12594,19 @@
         <v>174098</v>
       </c>
       <c r="S40" s="5" t="n">
-        <v>152705</v>
+        <v>151916</v>
       </c>
       <c r="T40" s="5" t="n">
-        <v>198687</v>
+        <v>199912</v>
       </c>
       <c r="U40" s="6" t="n">
         <v>0.02888235040696718</v>
       </c>
       <c r="V40" s="6" t="n">
-        <v>0.02533327030452933</v>
+        <v>0.02520233478578727</v>
       </c>
       <c r="W40" s="6" t="n">
-        <v>0.03296161378562194</v>
+        <v>0.03316480339257622</v>
       </c>
     </row>
     <row r="41">
@@ -12623,19 +12623,19 @@
         <v>42137</v>
       </c>
       <c r="E41" s="5" t="n">
-        <v>31500</v>
+        <v>31286</v>
       </c>
       <c r="F41" s="5" t="n">
-        <v>57349</v>
+        <v>58535</v>
       </c>
       <c r="G41" s="6" t="n">
         <v>0.01304860871047366</v>
       </c>
       <c r="H41" s="6" t="n">
-        <v>0.009754663136784095</v>
+        <v>0.009688423161099871</v>
       </c>
       <c r="I41" s="6" t="n">
-        <v>0.01775907598822246</v>
+        <v>0.01812643211013812</v>
       </c>
       <c r="J41" s="5" t="n">
         <v>16</v>
@@ -12644,19 +12644,19 @@
         <v>10911</v>
       </c>
       <c r="L41" s="5" t="n">
-        <v>6497</v>
+        <v>6442</v>
       </c>
       <c r="M41" s="5" t="n">
-        <v>18582</v>
+        <v>17270</v>
       </c>
       <c r="N41" s="6" t="n">
         <v>0.00389889612656187</v>
       </c>
       <c r="O41" s="6" t="n">
-        <v>0.002321487536540303</v>
+        <v>0.002302049691489486</v>
       </c>
       <c r="P41" s="6" t="n">
-        <v>0.006639716845101734</v>
+        <v>0.006171140310380996</v>
       </c>
       <c r="Q41" s="5" t="n">
         <v>60</v>
@@ -12665,19 +12665,19 @@
         <v>53049</v>
       </c>
       <c r="S41" s="5" t="n">
-        <v>41086</v>
+        <v>41168</v>
       </c>
       <c r="T41" s="5" t="n">
-        <v>68862</v>
+        <v>67954</v>
       </c>
       <c r="U41" s="6" t="n">
         <v>0.008800603833525574</v>
       </c>
       <c r="V41" s="6" t="n">
-        <v>0.006816062768338738</v>
+        <v>0.006829617103781797</v>
       </c>
       <c r="W41" s="6" t="n">
-        <v>0.01142399275619184</v>
+        <v>0.01127341418277069</v>
       </c>
     </row>
     <row r="42">
@@ -12694,19 +12694,19 @@
         <v>416624</v>
       </c>
       <c r="E42" s="5" t="n">
-        <v>379942</v>
+        <v>378557</v>
       </c>
       <c r="F42" s="5" t="n">
-        <v>457392</v>
+        <v>454230</v>
       </c>
       <c r="G42" s="6" t="n">
         <v>0.129015767656251</v>
       </c>
       <c r="H42" s="6" t="n">
-        <v>0.1176564269097325</v>
+        <v>0.1172275277278745</v>
       </c>
       <c r="I42" s="6" t="n">
-        <v>0.1416402253907525</v>
+        <v>0.140661027896626</v>
       </c>
       <c r="J42" s="5" t="n">
         <v>467</v>
@@ -12715,19 +12715,19 @@
         <v>303988</v>
       </c>
       <c r="L42" s="5" t="n">
-        <v>275731</v>
+        <v>278158</v>
       </c>
       <c r="M42" s="5" t="n">
-        <v>332139</v>
+        <v>331964</v>
       </c>
       <c r="N42" s="6" t="n">
         <v>0.1086216340341174</v>
       </c>
       <c r="O42" s="6" t="n">
-        <v>0.09852493815395801</v>
+        <v>0.09939221296774733</v>
       </c>
       <c r="P42" s="6" t="n">
-        <v>0.1186808379959691</v>
+        <v>0.118618290601624</v>
       </c>
       <c r="Q42" s="5" t="n">
         <v>909</v>
@@ -12736,19 +12736,19 @@
         <v>720612</v>
       </c>
       <c r="S42" s="5" t="n">
-        <v>679701</v>
+        <v>676061</v>
       </c>
       <c r="T42" s="5" t="n">
-        <v>771265</v>
+        <v>769165</v>
       </c>
       <c r="U42" s="6" t="n">
-        <v>0.1195472320827635</v>
+        <v>0.1195472320827636</v>
       </c>
       <c r="V42" s="6" t="n">
-        <v>0.1127601584153186</v>
+        <v>0.1121564275823842</v>
       </c>
       <c r="W42" s="6" t="n">
-        <v>0.1279504451646483</v>
+        <v>0.1276019551010804</v>
       </c>
     </row>
     <row r="43">
